--- a/laravel-menu.xlsx
+++ b/laravel-menu.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MENU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{11B2ECB4-09E4-44A8-9181-050D2FECC844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="849" xr2:uid="{9DB94772-CCA3-46BB-AFA6-A40BAEB4C00E}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="849" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="menu" sheetId="1" r:id="rId1"/>
@@ -24,10 +23,10 @@
     <sheet name="function" sheetId="7" r:id="rId9"/>
     <sheet name="http" sheetId="10" r:id="rId10"/>
     <sheet name="validation" sheetId="11" r:id="rId11"/>
-    <sheet name="packages" sheetId="8" r:id="rId12"/>
+    <sheet name="librabry" sheetId="13" r:id="rId12"/>
+    <sheet name="packages" sheetId="8" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -46,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="460">
   <si>
     <t>tải xampp</t>
   </si>
@@ -1425,11 +1424,32 @@
   <si>
     <t>a</t>
   </si>
+  <si>
+    <t>cẩn thận key có phân biệt in hoa in thường(ví dụ email và Email)</t>
+  </si>
+  <si>
+    <t>có validation có sẵn</t>
+  </si>
+  <si>
+    <t>có validation tùy chỉnh</t>
+  </si>
+  <si>
+    <t>required, min, max, confirmed (để xác nhận mật khẩu nhập lại), regex (để kiểm tra mật khẩu theo một biểu thức chính quy), vv.</t>
+  </si>
+  <si>
+    <t>php artisan lang:publish để tạo thư mục lang/en</t>
+  </si>
+  <si>
+    <t>Illuminate\Support\Facades\Hash;</t>
+  </si>
+  <si>
+    <t>mã hóa mật khẩu</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1882,16 +1902,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFB7F90F-FF07-41AF-AE31-69FA6D63E9F4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D2:V176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="4:11" x14ac:dyDescent="0.25">
       <c r="F2" t="s">
         <v>0</v>
       </c>
@@ -1902,7 +1922,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="3" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="4:11" x14ac:dyDescent="0.25">
       <c r="F3" t="s">
         <v>2</v>
       </c>
@@ -1913,12 +1933,12 @@
         <v>351</v>
       </c>
     </row>
-    <row r="4" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="4:11" x14ac:dyDescent="0.25">
       <c r="K4" s="1" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="6" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="4:11" x14ac:dyDescent="0.25">
       <c r="F6" t="s">
         <v>3</v>
       </c>
@@ -1926,227 +1946,227 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E22" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D43" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D47" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="48" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D49" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="52" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D52" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="53" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="4:7" x14ac:dyDescent="0.25">
       <c r="E53" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="54" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:7" x14ac:dyDescent="0.25">
       <c r="F54" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="55" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="4:7" x14ac:dyDescent="0.25">
       <c r="F55" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="56" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="4:7" x14ac:dyDescent="0.25">
       <c r="F56" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="57" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="4:7" x14ac:dyDescent="0.25">
       <c r="F57" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="58" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="4:7" x14ac:dyDescent="0.25">
       <c r="F58" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="59" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D59" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="60" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="4:7" x14ac:dyDescent="0.25">
       <c r="E60" t="s">
         <v>49</v>
       </c>
@@ -2154,7 +2174,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="61" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="4:7" x14ac:dyDescent="0.25">
       <c r="E61" t="s">
         <v>51</v>
       </c>
@@ -2162,37 +2182,37 @@
         <v>52</v>
       </c>
     </row>
-    <row r="62" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="4:7" x14ac:dyDescent="0.25">
       <c r="E62" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="63" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="4:7" x14ac:dyDescent="0.25">
       <c r="E63" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="64" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="4:7" x14ac:dyDescent="0.25">
       <c r="E64" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="65" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E65" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="66" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E66" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="67" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D67" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="68" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E68" t="s">
         <v>63</v>
       </c>
@@ -2200,7 +2220,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="69" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E69" t="s">
         <v>67</v>
       </c>
@@ -2208,7 +2228,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E70" t="s">
         <v>71</v>
       </c>
@@ -2216,22 +2236,22 @@
         <v>72</v>
       </c>
     </row>
-    <row r="71" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E71" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="72" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E72" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="73" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E73" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="74" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E74" t="s">
         <v>84</v>
       </c>
@@ -2239,7 +2259,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="75" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E75" t="s">
         <v>88</v>
       </c>
@@ -2247,7 +2267,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="76" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E76" t="s">
         <v>92</v>
       </c>
@@ -2255,7 +2275,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="77" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E77" t="s">
         <v>96</v>
       </c>
@@ -2263,7 +2283,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="78" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E78" t="s">
         <v>100</v>
       </c>
@@ -2271,18 +2291,18 @@
         <v>101</v>
       </c>
     </row>
-    <row r="79" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D79" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="80" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D80" s="1" t="s">
         <v>129</v>
       </c>
       <c r="E80" s="2"/>
     </row>
-    <row r="81" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="81" spans="4:18" x14ac:dyDescent="0.25">
       <c r="E81" s="2" t="s">
         <v>130</v>
       </c>
@@ -2290,7 +2310,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="82" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="82" spans="4:18" x14ac:dyDescent="0.25">
       <c r="E82" t="s">
         <v>132</v>
       </c>
@@ -2298,7 +2318,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="83" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="83" spans="4:18" x14ac:dyDescent="0.25">
       <c r="E83" t="s">
         <v>134</v>
       </c>
@@ -2306,22 +2326,22 @@
         <v>135</v>
       </c>
     </row>
-    <row r="84" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="84" spans="4:18" x14ac:dyDescent="0.25">
       <c r="E84" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="85" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="85" spans="4:18" x14ac:dyDescent="0.25">
       <c r="E85" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="88" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="88" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D88" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="89" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="89" spans="4:18" x14ac:dyDescent="0.25">
       <c r="E89" s="9" t="s">
         <v>139</v>
       </c>
@@ -2339,32 +2359,32 @@
       <c r="Q89" s="9"/>
       <c r="R89" s="9"/>
     </row>
-    <row r="90" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="90" spans="4:18" x14ac:dyDescent="0.25">
       <c r="E90" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="91" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="91" spans="4:18" x14ac:dyDescent="0.25">
       <c r="E91" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="92" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="92" spans="4:18" x14ac:dyDescent="0.25">
       <c r="E92" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="93" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="93" spans="4:18" x14ac:dyDescent="0.25">
       <c r="E93" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="94" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="94" spans="4:18" x14ac:dyDescent="0.25">
       <c r="E94" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="96" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="96" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D96" t="s">
         <v>145</v>
       </c>
@@ -2372,7 +2392,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="97" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="97" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D97" s="1" t="s">
         <v>147</v>
       </c>
@@ -2380,7 +2400,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="98" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="98" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D98" s="1" t="s">
         <v>100</v>
       </c>
@@ -2388,12 +2408,12 @@
         <v>149</v>
       </c>
     </row>
-    <row r="100" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="100" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D100" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="101" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="101" spans="4:18" x14ac:dyDescent="0.25">
       <c r="E101" t="s">
         <v>151</v>
       </c>
@@ -2401,7 +2421,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="102" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="102" spans="4:18" x14ac:dyDescent="0.25">
       <c r="F102" t="s">
         <v>153</v>
       </c>
@@ -2412,7 +2432,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="103" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="103" spans="4:18" x14ac:dyDescent="0.25">
       <c r="F103" t="s">
         <v>156</v>
       </c>
@@ -2423,7 +2443,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="104" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="104" spans="4:18" x14ac:dyDescent="0.25">
       <c r="E104" t="s">
         <v>159</v>
       </c>
@@ -2431,7 +2451,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="105" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="105" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D105" s="1" t="s">
         <v>161</v>
       </c>
@@ -2439,7 +2459,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="106" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="106" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D106" s="1" t="s">
         <v>163</v>
       </c>
@@ -2447,12 +2467,12 @@
         <v>164</v>
       </c>
     </row>
-    <row r="108" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="108" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D108" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="109" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="109" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D109" t="s">
         <v>166</v>
       </c>
@@ -2460,7 +2480,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="110" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="110" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D110" t="s">
         <v>166</v>
       </c>
@@ -2468,7 +2488,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="111" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="111" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D111" t="s">
         <v>166</v>
       </c>
@@ -2476,7 +2496,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="112" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="112" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D112" t="s">
         <v>166</v>
       </c>
@@ -2484,7 +2504,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="113" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D113" t="s">
         <v>166</v>
       </c>
@@ -2492,7 +2512,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="114" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="4:8" x14ac:dyDescent="0.25">
       <c r="E114" t="s">
         <v>166</v>
       </c>
@@ -2503,7 +2523,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="115" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="4:8" x14ac:dyDescent="0.25">
       <c r="E115" t="s">
         <v>166</v>
       </c>
@@ -2514,7 +2534,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="116" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="4:8" x14ac:dyDescent="0.25">
       <c r="E116" t="s">
         <v>166</v>
       </c>
@@ -2522,7 +2542,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="117" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="4:8" x14ac:dyDescent="0.25">
       <c r="E117" t="s">
         <v>166</v>
       </c>
@@ -2533,7 +2553,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="118" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="4:8" x14ac:dyDescent="0.25">
       <c r="E118" t="s">
         <v>166</v>
       </c>
@@ -2544,7 +2564,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="119" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D119" t="s">
         <v>166</v>
       </c>
@@ -2555,7 +2575,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="120" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D120" t="s">
         <v>166</v>
       </c>
@@ -2563,37 +2583,37 @@
         <v>183</v>
       </c>
     </row>
-    <row r="122" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="122" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D122" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="123" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="123" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D123" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="124" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="124" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D124" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="125" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D125" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="126" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="126" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D126" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="127" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="127" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D127" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="129" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="129" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D129" t="s">
         <v>190</v>
       </c>
@@ -2601,7 +2621,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="130" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="130" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D130" t="s">
         <v>192</v>
       </c>
@@ -2609,7 +2629,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="131" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="131" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D131" t="s">
         <v>194</v>
       </c>
@@ -2617,7 +2637,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="132" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="132" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D132" t="s">
         <v>196</v>
       </c>
@@ -2625,7 +2645,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="133" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="133" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D133" t="s">
         <v>198</v>
       </c>
@@ -2639,12 +2659,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="134" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="134" spans="4:21" x14ac:dyDescent="0.25">
       <c r="U134" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="135" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="135" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D135" t="s">
         <v>202</v>
       </c>
@@ -2652,7 +2672,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="136" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="136" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D136">
         <v>1</v>
       </c>
@@ -2663,7 +2683,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="137" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="137" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D137">
         <v>2</v>
       </c>
@@ -2674,7 +2694,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="138" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="138" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D138" t="s">
         <v>207</v>
       </c>
@@ -2682,7 +2702,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="139" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="139" spans="4:21" x14ac:dyDescent="0.25">
       <c r="E139" t="s">
         <v>209</v>
       </c>
@@ -2690,7 +2710,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="140" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="140" spans="4:21" x14ac:dyDescent="0.25">
       <c r="E140" t="s">
         <v>211</v>
       </c>
@@ -2698,12 +2718,12 @@
         <v>212</v>
       </c>
     </row>
-    <row r="141" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="141" spans="4:21" x14ac:dyDescent="0.25">
       <c r="U141" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="142" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="142" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D142" t="s">
         <v>214</v>
       </c>
@@ -2714,7 +2734,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="143" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="143" spans="4:21" x14ac:dyDescent="0.25">
       <c r="E143" t="s">
         <v>215</v>
       </c>
@@ -2722,7 +2742,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="144" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="144" spans="4:21" x14ac:dyDescent="0.25">
       <c r="E144" t="s">
         <v>217</v>
       </c>
@@ -2730,7 +2750,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="145" spans="4:22" x14ac:dyDescent="0.3">
+    <row r="145" spans="4:22" x14ac:dyDescent="0.25">
       <c r="F145" t="s">
         <v>219</v>
       </c>
@@ -2738,7 +2758,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="146" spans="4:22" x14ac:dyDescent="0.3">
+    <row r="146" spans="4:22" x14ac:dyDescent="0.25">
       <c r="F146" t="s">
         <v>221</v>
       </c>
@@ -2746,7 +2766,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="147" spans="4:22" x14ac:dyDescent="0.3">
+    <row r="147" spans="4:22" x14ac:dyDescent="0.25">
       <c r="F147" t="s">
         <v>223</v>
       </c>
@@ -2757,7 +2777,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="148" spans="4:22" x14ac:dyDescent="0.3">
+    <row r="148" spans="4:22" x14ac:dyDescent="0.25">
       <c r="E148" t="s">
         <v>226</v>
       </c>
@@ -2768,7 +2788,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="149" spans="4:22" x14ac:dyDescent="0.3">
+    <row r="149" spans="4:22" x14ac:dyDescent="0.25">
       <c r="E149" t="s">
         <v>228</v>
       </c>
@@ -2776,7 +2796,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="150" spans="4:22" x14ac:dyDescent="0.3">
+    <row r="150" spans="4:22" x14ac:dyDescent="0.25">
       <c r="E150" t="s">
         <v>230</v>
       </c>
@@ -2784,12 +2804,12 @@
         <v>231</v>
       </c>
     </row>
-    <row r="151" spans="4:22" x14ac:dyDescent="0.3">
+    <row r="151" spans="4:22" x14ac:dyDescent="0.25">
       <c r="U151" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="152" spans="4:22" x14ac:dyDescent="0.3">
+    <row r="152" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D152" t="s">
         <v>233</v>
       </c>
@@ -2797,7 +2817,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="153" spans="4:22" x14ac:dyDescent="0.3">
+    <row r="153" spans="4:22" x14ac:dyDescent="0.25">
       <c r="E153" t="s">
         <v>235</v>
       </c>
@@ -2805,7 +2825,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="154" spans="4:22" x14ac:dyDescent="0.3">
+    <row r="154" spans="4:22" x14ac:dyDescent="0.25">
       <c r="E154" t="s">
         <v>237</v>
       </c>
@@ -2813,7 +2833,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="155" spans="4:22" x14ac:dyDescent="0.3">
+    <row r="155" spans="4:22" x14ac:dyDescent="0.25">
       <c r="E155" t="s">
         <v>239</v>
       </c>
@@ -2824,17 +2844,17 @@
         <v>240</v>
       </c>
     </row>
-    <row r="156" spans="4:22" x14ac:dyDescent="0.3">
+    <row r="156" spans="4:22" x14ac:dyDescent="0.25">
       <c r="E156" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="157" spans="4:22" x14ac:dyDescent="0.3">
+    <row r="157" spans="4:22" x14ac:dyDescent="0.25">
       <c r="E157" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="158" spans="4:22" x14ac:dyDescent="0.3">
+    <row r="158" spans="4:22" x14ac:dyDescent="0.25">
       <c r="R158" t="s">
         <v>1</v>
       </c>
@@ -2845,7 +2865,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="159" spans="4:22" x14ac:dyDescent="0.3">
+    <row r="159" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D159" t="s">
         <v>244</v>
       </c>
@@ -2865,7 +2885,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="160" spans="4:22" x14ac:dyDescent="0.3">
+    <row r="160" spans="4:22" x14ac:dyDescent="0.25">
       <c r="E160" t="s">
         <v>247</v>
       </c>
@@ -2882,7 +2902,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="161" spans="4:20" x14ac:dyDescent="0.3">
+    <row r="161" spans="4:20" x14ac:dyDescent="0.25">
       <c r="E161" t="s">
         <v>249</v>
       </c>
@@ -2896,7 +2916,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="162" spans="4:20" x14ac:dyDescent="0.3">
+    <row r="162" spans="4:20" x14ac:dyDescent="0.25">
       <c r="S162" t="s">
         <v>166</v>
       </c>
@@ -2904,7 +2924,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="163" spans="4:20" x14ac:dyDescent="0.3">
+    <row r="163" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D163" t="s">
         <v>252</v>
       </c>
@@ -2915,7 +2935,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="164" spans="4:20" x14ac:dyDescent="0.3">
+    <row r="164" spans="4:20" x14ac:dyDescent="0.25">
       <c r="E164" t="s">
         <v>254</v>
       </c>
@@ -2926,7 +2946,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="165" spans="4:20" x14ac:dyDescent="0.3">
+    <row r="165" spans="4:20" x14ac:dyDescent="0.25">
       <c r="E165" t="s">
         <v>256</v>
       </c>
@@ -2937,57 +2957,57 @@
         <v>257</v>
       </c>
     </row>
-    <row r="166" spans="4:20" x14ac:dyDescent="0.3">
+    <row r="166" spans="4:20" x14ac:dyDescent="0.25">
       <c r="E166" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="167" spans="4:20" x14ac:dyDescent="0.3">
+    <row r="167" spans="4:20" x14ac:dyDescent="0.25">
       <c r="E167" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="168" spans="4:20" x14ac:dyDescent="0.3">
+    <row r="168" spans="4:20" x14ac:dyDescent="0.25">
       <c r="E168" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="169" spans="4:20" x14ac:dyDescent="0.3">
+    <row r="169" spans="4:20" x14ac:dyDescent="0.25">
       <c r="E169" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="170" spans="4:20" x14ac:dyDescent="0.3">
+    <row r="170" spans="4:20" x14ac:dyDescent="0.25">
       <c r="F170" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="171" spans="4:20" x14ac:dyDescent="0.3">
+    <row r="171" spans="4:20" x14ac:dyDescent="0.25">
       <c r="F171" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="172" spans="4:20" x14ac:dyDescent="0.3">
+    <row r="172" spans="4:20" x14ac:dyDescent="0.25">
       <c r="F172" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="173" spans="4:20" x14ac:dyDescent="0.3">
+    <row r="173" spans="4:20" x14ac:dyDescent="0.25">
       <c r="F173" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="174" spans="4:20" x14ac:dyDescent="0.3">
+    <row r="174" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D174" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="175" spans="4:20" x14ac:dyDescent="0.3">
+    <row r="175" spans="4:20" x14ac:dyDescent="0.25">
       <c r="E175" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="176" spans="4:20" x14ac:dyDescent="0.3">
+    <row r="176" spans="4:20" x14ac:dyDescent="0.25">
       <c r="E176" t="s">
         <v>268</v>
       </c>
@@ -3001,16 +3021,16 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C6596A2-F323-4262-BB4D-183183FB1A1C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:B90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G83" sqref="G83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>274</v>
       </c>
@@ -3018,387 +3038,387 @@
         <v>375</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
         <v>446</v>
       </c>
@@ -3410,16 +3430,16 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6379491F-1205-45E2-896B-FD5FF2D1C9CC}">
-  <dimension ref="B2:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>1</v>
       </c>
@@ -3427,7 +3447,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>2</v>
       </c>
@@ -3435,12 +3455,47 @@
         <v>449</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>450</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>454</v>
+      </c>
+      <c r="F6" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>457</v>
       </c>
     </row>
   </sheetData>
@@ -3449,30 +3504,60 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136EDF05-B30E-40C4-9DA3-2A4CBC33B7E2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>458</v>
+      </c>
+      <c r="D3" t="s">
+        <v>459</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9979887E-7107-441B-A5B5-02CC458A2176}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>1</v>
       </c>
@@ -3480,7 +3565,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>2</v>
       </c>
@@ -3494,24 +3579,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47291EAC-7738-4ADB-9405-55DFE88F2750}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C35"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -3522,7 +3607,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>166</v>
       </c>
@@ -3530,7 +3615,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>166</v>
       </c>
@@ -3538,7 +3623,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>166</v>
       </c>
@@ -3546,7 +3631,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>166</v>
       </c>
@@ -3554,7 +3639,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>166</v>
       </c>
@@ -3562,7 +3647,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
@@ -3573,7 +3658,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>166</v>
       </c>
@@ -3581,7 +3666,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>166</v>
       </c>
@@ -3589,7 +3674,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3</v>
       </c>
@@ -3600,7 +3685,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>4</v>
       </c>
@@ -3611,7 +3696,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>5</v>
       </c>
@@ -3622,7 +3707,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>6</v>
       </c>
@@ -3633,7 +3718,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>7</v>
       </c>
@@ -3644,7 +3729,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>8</v>
       </c>
@@ -3655,7 +3740,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>9</v>
       </c>
@@ -3666,7 +3751,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>10</v>
       </c>
@@ -3677,7 +3762,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>11</v>
       </c>
@@ -3688,7 +3773,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>12</v>
       </c>
@@ -3699,7 +3784,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>13</v>
       </c>
@@ -3710,7 +3795,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>14</v>
       </c>
@@ -3721,7 +3806,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>15</v>
       </c>
@@ -3732,7 +3817,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>16</v>
       </c>
@@ -3743,7 +3828,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>17</v>
       </c>
@@ -3754,7 +3839,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>18</v>
       </c>
@@ -3765,7 +3850,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>19</v>
       </c>
@@ -3776,7 +3861,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>20</v>
       </c>
@@ -3787,22 +3872,22 @@
         <v>310</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>314</v>
       </c>
@@ -3814,21 +3899,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C39D7F5-F332-437A-A33F-E7D4C2A5483B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D2:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D2" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>166</v>
       </c>
@@ -3836,7 +3921,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="4" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>166</v>
       </c>
@@ -3844,7 +3929,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>166</v>
       </c>
@@ -3852,22 +3937,22 @@
         <v>355</v>
       </c>
     </row>
-    <row r="6" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F6" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="7" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F7" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="8" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="9" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
         <v>111</v>
       </c>
@@ -3879,20 +3964,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{635727DC-8F5E-4228-BEE7-77E94ABD8059}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:I34"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="72" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="53.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>55</v>
       </c>
@@ -3900,7 +3985,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>61</v>
       </c>
@@ -3908,7 +3993,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>65</v>
       </c>
@@ -3916,7 +4001,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>69</v>
       </c>
@@ -3924,7 +4009,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>73</v>
       </c>
@@ -3932,7 +4017,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
         <v>76</v>
       </c>
@@ -3940,7 +4025,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
         <v>79</v>
       </c>
@@ -3948,7 +4033,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
         <v>82</v>
       </c>
@@ -3956,7 +4041,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
         <v>86</v>
       </c>
@@ -3964,7 +4049,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
         <v>90</v>
       </c>
@@ -3972,7 +4057,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
         <v>94</v>
       </c>
@@ -3980,7 +4065,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
         <v>98</v>
       </c>
@@ -3988,7 +4073,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>102</v>
       </c>
@@ -3996,7 +4081,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
         <v>105</v>
       </c>
@@ -4004,7 +4089,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
         <v>107</v>
       </c>
@@ -4012,7 +4097,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
         <v>109</v>
       </c>
@@ -4020,7 +4105,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
         <v>111</v>
       </c>
@@ -4028,7 +4113,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
         <v>113</v>
       </c>
@@ -4036,13 +4121,13 @@
         <v>114</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="4"/>
       <c r="C24" s="4" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
         <v>117</v>
       </c>
@@ -4050,13 +4135,13 @@
         <v>118</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C26" s="4"/>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="s">
         <v>120</v>
       </c>
@@ -4064,13 +4149,13 @@
         <v>121</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" s="4" t="s">
         <v>122</v>
       </c>
       <c r="C28" s="4"/>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" s="4" t="s">
         <v>123</v>
       </c>
@@ -4078,7 +4163,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" s="4" t="s">
         <v>125</v>
       </c>
@@ -4086,25 +4171,25 @@
         <v>126</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" s="4" t="s">
         <v>358</v>
       </c>
       <c r="C31" s="4"/>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" s="4" t="s">
         <v>359</v>
       </c>
       <c r="C32" s="4"/>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="4" t="s">
         <v>360</v>
       </c>
       <c r="C33" s="4"/>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="4" t="s">
         <v>361</v>
       </c>
@@ -4116,16 +4201,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA5C8AE7-CFA2-4B71-BB64-D70C41C9EAE9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="4:9" x14ac:dyDescent="0.25">
       <c r="E1" t="s">
         <v>366</v>
       </c>
@@ -4133,7 +4218,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="3" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D3" s="1">
         <v>1</v>
       </c>
@@ -4144,7 +4229,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="4" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="4:9" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
         <v>166</v>
       </c>
@@ -4155,7 +4240,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="5" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F5" t="s">
         <v>364</v>
       </c>
@@ -4163,42 +4248,42 @@
         <v>365</v>
       </c>
     </row>
-    <row r="6" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F6" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="7" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F7" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="8" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="9" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="4:9" x14ac:dyDescent="0.25">
       <c r="G9" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="10" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="4:9" x14ac:dyDescent="0.25">
       <c r="G10" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="11" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="4:9" x14ac:dyDescent="0.25">
       <c r="G11" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="12" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="4:9" x14ac:dyDescent="0.25">
       <c r="G12" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="14" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F14" t="s">
         <v>369</v>
       </c>
@@ -4206,7 +4291,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="15" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F15" t="s">
         <v>371</v>
       </c>
@@ -4216,7 +4301,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G3" r:id="rId1" xr:uid="{262A9268-04F2-40CB-BCF6-D8FC8655005C}"/>
+    <hyperlink ref="G3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -4224,56 +4309,56 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE2E5AEB-1BA6-41C5-B7F2-D0E5D2F6CA54}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B10"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>316</v>
       </c>
@@ -4285,16 +4370,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E70F10C-0D06-4C74-8E9E-5BA06F80F250}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C3">
         <v>1</v>
       </c>
@@ -4302,7 +4387,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="4" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C4">
         <v>2</v>
       </c>
@@ -4310,7 +4395,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="5" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C5">
         <v>3</v>
       </c>
@@ -4318,7 +4403,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="6" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C6">
         <v>4</v>
       </c>
@@ -4326,12 +4411,12 @@
         <v>327</v>
       </c>
     </row>
-    <row r="9" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="10" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C10">
         <v>1</v>
       </c>
@@ -4339,7 +4424,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="11" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C11">
         <v>2</v>
       </c>
@@ -4347,7 +4432,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="12" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C12">
         <v>3</v>
       </c>
@@ -4355,7 +4440,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="13" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C13">
         <v>4</v>
       </c>
@@ -4366,22 +4451,22 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4415D41-5FFC-4724-97BD-646834E9E689}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.88671875" style="3"/>
-    <col min="3" max="3" width="17.88671875" customWidth="1"/>
-    <col min="4" max="4" width="26.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="3"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" s="6" t="s">
         <v>333</v>
       </c>
@@ -4395,7 +4480,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="6">
         <v>1</v>
       </c>
@@ -4407,7 +4492,7 @@
       </c>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="6">
         <v>2</v>
       </c>
@@ -4419,7 +4504,7 @@
       </c>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="6">
         <v>3</v>
       </c>
@@ -4431,7 +4516,7 @@
       </c>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="6">
         <v>4</v>
       </c>
@@ -4443,7 +4528,7 @@
       </c>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="6">
         <v>5</v>
       </c>
@@ -4457,7 +4542,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="6">
         <v>6</v>
       </c>
@@ -4471,7 +4556,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="6">
         <v>7</v>
       </c>
@@ -4483,7 +4568,7 @@
       </c>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="6">
         <v>8</v>
       </c>
@@ -4493,7 +4578,7 @@
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="6">
         <v>9</v>
       </c>
@@ -4501,7 +4586,7 @@
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="6">
         <v>10</v>
       </c>
@@ -4509,7 +4594,7 @@
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="6">
         <v>11</v>
       </c>
@@ -4517,7 +4602,7 @@
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="6">
         <v>12</v>
       </c>
@@ -4525,7 +4610,7 @@
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="6">
         <v>13</v>
       </c>
@@ -4533,7 +4618,7 @@
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="6">
         <v>14</v>
       </c>
@@ -4541,7 +4626,7 @@
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="6">
         <v>15</v>
       </c>
@@ -4549,7 +4634,7 @@
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="6">
         <v>16</v>
       </c>

--- a/laravel-menu.xlsx
+++ b/laravel-menu.xlsx
@@ -9,22 +9,25 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="849" activeTab="11"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="849" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="menu" sheetId="1" r:id="rId1"/>
     <sheet name="problem" sheetId="12" r:id="rId2"/>
     <sheet name="folder" sheetId="4" r:id="rId3"/>
-    <sheet name="error" sheetId="3" r:id="rId4"/>
-    <sheet name="script" sheetId="2" r:id="rId5"/>
-    <sheet name="software" sheetId="9" r:id="rId6"/>
-    <sheet name="lifecycle" sheetId="5" r:id="rId7"/>
-    <sheet name="environment" sheetId="6" r:id="rId8"/>
-    <sheet name="function" sheetId="7" r:id="rId9"/>
-    <sheet name="http" sheetId="10" r:id="rId10"/>
-    <sheet name="validation" sheetId="11" r:id="rId11"/>
-    <sheet name="librabry" sheetId="13" r:id="rId12"/>
-    <sheet name="packages" sheetId="8" r:id="rId13"/>
+    <sheet name="ORM" sheetId="16" r:id="rId4"/>
+    <sheet name="error" sheetId="3" r:id="rId5"/>
+    <sheet name="script" sheetId="2" r:id="rId6"/>
+    <sheet name="software" sheetId="9" r:id="rId7"/>
+    <sheet name="lifecycle" sheetId="5" r:id="rId8"/>
+    <sheet name="environment" sheetId="6" r:id="rId9"/>
+    <sheet name="function" sheetId="7" r:id="rId10"/>
+    <sheet name="http" sheetId="10" r:id="rId11"/>
+    <sheet name="validation" sheetId="11" r:id="rId12"/>
+    <sheet name="logging" sheetId="14" r:id="rId13"/>
+    <sheet name="librabry" sheetId="13" r:id="rId14"/>
+    <sheet name="exception" sheetId="15" r:id="rId15"/>
+    <sheet name="packages" sheetId="8" r:id="rId16"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -45,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="513">
   <si>
     <t>tải xampp</t>
   </si>
@@ -1444,6 +1447,165 @@
   </si>
   <si>
     <t>mã hóa mật khẩu</t>
+  </si>
+  <si>
+    <t>các yêu cầu thường có của password</t>
+  </si>
+  <si>
+    <t>unique/bắt buộc</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>độ dài password</t>
+  </si>
+  <si>
+    <t>có cả chữ thường, chữ in hoa, số,kí tự đặc biệt</t>
+  </si>
+  <si>
+    <t>Trong Laravel, logging là quá trình ghi lại các thông tin, cảnh báo, lỗi hoặc sự kiện quan trọng vào các tập tin log để theo dõi và phân tích sau này. Logging là một phần quan trọng của việc quản lý ứng dụng và giúp bạn theo dõi hoạt động của ứng dụng, xác định vấn đề và tìm ra nguyên nhân của các lỗi.</t>
+  </si>
+  <si>
+    <t>Trong Laravel, bạn có thể sử dụng giao diện Illuminate\Log\Logger để ghi log thông tin vào các tập tin log. Laravel hỗ trợ nhiều cấp độ log như emergency, alert, critical, error, warning, notice, info, và debug, giúp bạn phân loại và quản lý các thông tin log một cách dễ dàng.</t>
+  </si>
+  <si>
+    <t>Laravel cung cấp cấu hình mặc định cho logging trong file config/logging.php, cho phép bạn cấu hình các driver logging như single, daily, syslog, errorlog, và stack. Bạn có thể tùy chỉnh cấu hình logging để điều chỉnh cách ghi log, định dạng log và nơi lưu trữ log.</t>
+  </si>
+  <si>
+    <t>Để ghi log trong Laravel, bạn có thể sử dụng các phương thức như Log::info(), Log::error(), Log::debug() để ghi các thông tin, lỗi hoặc debug vào tập tin log. Bạn cũng có thể tạo các log tùy chỉnh và quản lý chúng theo nhu cầu của ứng dụng.</t>
+  </si>
+  <si>
+    <t>Tóm lại, logging là quá trình quan trọng trong việc quản lý và theo dõi hoạt động của ứng dụng trong Laravel, giúp bạn ghi lại và phân tích thông tin, lỗi và sự kiện quan trọng để hỗ trợ việc phát triển và duy trì ứng dụng một cách hiệu quả.</t>
+  </si>
+  <si>
+    <t>Illuminate\Foundation\Configuration\Exceptions</t>
+  </si>
+  <si>
+    <t>thư viện</t>
+  </si>
+  <si>
+    <t>gồm có 2 loại</t>
+  </si>
+  <si>
+    <t>Handler để xử lí các exception thông thường trong ứng dụng</t>
+  </si>
+  <si>
+    <t>exception handler để xử lí các exception ngoài ý muốn và trả về các phản hồi phù hợp cho người dùng</t>
+  </si>
+  <si>
+    <t>Khi một exception xảy ra, Laravel sẽ tự động chuyển nó tới lớp ExceptionHandler để xử lý.</t>
+  </si>
+  <si>
+    <t>Bạn có thể tùy chỉnh cách xử lý các exception bằng cách chỉnh sửa lớp ExceptionHandler hoặc tạo các xử lý exception tùy chỉnh.</t>
+  </si>
+  <si>
+    <t>Để bắt và xử lý các exception trong Laravel, bạn có thể sử dụng các cấu trúc try-catch </t>
+  </si>
+  <si>
+    <t>hoặc sử dụng các middleware hoặc global exception handler để xử lý các ngoại lệ một cách toàn diện trong ứng dụng.</t>
+  </si>
+  <si>
+    <t>xác thực lồng nhau thì dùng dấu chấm</t>
+  </si>
+  <si>
+    <t>au khi xác thực xong, thì mới lấy dữ liệu đc đó đi làm bước tiếp theo</t>
+  </si>
+  <si>
+    <t>có những loại validation có sẵn trong laravel ví dụ như email, password, array…</t>
+  </si>
+  <si>
+    <t>'regex:/^.*(?=.{3,})(?=.*[a-zA-Z])(?=.*[0-9])(?=.*[!$#%]).*$/',</t>
+  </si>
+  <si>
+    <t>^: Bắt đầu của chuỗi.</t>
+  </si>
+  <si>
+    <t>.*: Bất kỳ ký tự nào (bao gồm cả khoảng trắng) xuất hiện bất kỳ số lần nào.</t>
+  </si>
+  <si>
+    <t>(?=.{3,}): Positive lookahead để đảm bảo chuỗi có ít nhất 3 ký tự.</t>
+  </si>
+  <si>
+    <t>(?=.*[a-zA-Z]): Positive lookahead để đảm bảo chuỗi chứa ít nhất một ký tự chữ cái.</t>
+  </si>
+  <si>
+    <t>(?=.*[0-9]): Positive lookahead để đảm bảo chuỗi chứa ít nhất một chữ số.</t>
+  </si>
+  <si>
+    <t>(?=.*[\d\x]): Positive lookahead để đảm bảo chuỗi chứa ít nhất một chữ số hoặc ký tự đặc biệt.</t>
+  </si>
+  <si>
+    <t>(?=.*[!$#%]): Positive lookahead để đảm bảo chuỗi chứa ít nhất một trong các ký tự đặc biệt là !, $, #, hoặc %.</t>
+  </si>
+  <si>
+    <t>.*: Bất kỳ ký tự nào xuất hiện bất kỳ số lần nào.</t>
+  </si>
+  <si>
+    <t>$: Kết thúc của chuỗi.</t>
+  </si>
+  <si>
+    <t>Regular Expression trong PHP</t>
+  </si>
+  <si>
+    <t>https://viblo.asia/p/regular-expression-trong-php-DKBvdwbPkdX</t>
+  </si>
+  <si>
+    <t>có các mối quan hệ</t>
+  </si>
+  <si>
+    <t>thông qua / Polymorphic Relationship</t>
+  </si>
+  <si>
+    <t>Mối quan hệ ngược (Inverse Relationship):</t>
+  </si>
+  <si>
+    <t>tạo folder model</t>
+  </si>
+  <si>
+    <t>các định nghĩa, cách đặt tên</t>
+  </si>
+  <si>
+    <t>các dòng lệnh</t>
+  </si>
+  <si>
+    <t>Getting started</t>
+  </si>
+  <si>
+    <t>Relationship</t>
+  </si>
+  <si>
+    <t>định nghĩa mqh / Defining Relationships</t>
+  </si>
+  <si>
+    <t>các loại mối quan hệ</t>
+  </si>
+  <si>
+    <t>one to one: hasOne</t>
+  </si>
+  <si>
+    <t>hasOne() và belongsTo()</t>
+  </si>
+  <si>
+    <t>hasMany() và belongsTo()</t>
+  </si>
+  <si>
+    <t>belongsToMany()</t>
+  </si>
+  <si>
+    <t>Trong Laravel, Lazy Loading là một cách để lấy dữ liệu liên quan từ cơ sở dữ liệu chỉ khi cần thiết, tức là khi bạn truy cập vào thuộc tính liên quan. Điều này giúp tối ưu hóa hiệu suất và tăng tốc độ của ứng dụng bằng cách tránh việc tải toàn bộ dữ liệu liên quan mỗi khi bạn truy cập vào một model.</t>
+  </si>
+  <si>
+    <t>Ví dụ, giả sử bạn có mối quan hệ một-nhiều giữa bảng users và posts, trong đó một user có nhiều bài viết. Khi bạn sử dụng Lazy Loading, bạn có thể lấy danh sách các bài viết của một user chỉ khi cần thiết.</t>
+  </si>
+  <si>
+    <t>lazy loading</t>
+  </si>
+  <si>
+    <t>$user = User::find(1);</t>
+  </si>
+  <si>
+    <t>$posts = $user-&gt;posts; // Dữ liệu của bài viết sẽ được tải chỉ khi bạn truy cập vào thuộc tính 'posts'</t>
   </si>
 </sst>
 </file>
@@ -1522,7 +1684,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -1539,6 +1701,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1903,10 +2066,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D2:V176"/>
+  <dimension ref="D2:V190"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="K39" sqref="K39"/>
+    <sheetView topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="H187" sqref="H187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2665,7 +2828,7 @@
       </c>
     </row>
     <row r="135" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D135" t="s">
+      <c r="D135" s="1" t="s">
         <v>202</v>
       </c>
       <c r="U135" t="s">
@@ -2695,7 +2858,7 @@
       </c>
     </row>
     <row r="138" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D138" t="s">
+      <c r="D138" s="1" t="s">
         <v>207</v>
       </c>
       <c r="U138" t="s">
@@ -2724,7 +2887,7 @@
       </c>
     </row>
     <row r="142" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D142" t="s">
+      <c r="D142" s="1" t="s">
         <v>214</v>
       </c>
       <c r="S142">
@@ -2810,7 +2973,7 @@
       </c>
     </row>
     <row r="152" spans="4:22" x14ac:dyDescent="0.25">
-      <c r="D152" t="s">
+      <c r="D152" s="1" t="s">
         <v>233</v>
       </c>
       <c r="U152" t="s">
@@ -2866,7 +3029,7 @@
       </c>
     </row>
     <row r="159" spans="4:22" x14ac:dyDescent="0.25">
-      <c r="D159" t="s">
+      <c r="D159" s="1" t="s">
         <v>244</v>
       </c>
       <c r="E159" t="s">
@@ -2925,7 +3088,7 @@
       </c>
     </row>
     <row r="163" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D163" t="s">
+      <c r="D163" s="1" t="s">
         <v>252</v>
       </c>
       <c r="S163" t="s">
@@ -2998,7 +3161,7 @@
       </c>
     </row>
     <row r="174" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D174" t="s">
+      <c r="D174" s="1" t="s">
         <v>266</v>
       </c>
     </row>
@@ -3010,6 +3173,64 @@
     <row r="176" spans="4:20" x14ac:dyDescent="0.25">
       <c r="E176" t="s">
         <v>268</v>
+      </c>
+    </row>
+    <row r="179" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D179" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="J179" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="180" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="E180" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="182" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="E182" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="183" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="E183" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="184" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="E184" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="185" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="E185" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="186" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="E186" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="187" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="E187" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="188" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="E188" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="189" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="E189" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="190" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="E190" t="s">
+        <v>491</v>
       </c>
     </row>
   </sheetData>
@@ -3017,10 +3238,208 @@
     <mergeCell ref="E89:R89"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8.85546875" style="3"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="6">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="6">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="6">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="6">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="6">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="6">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="6">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="6">
+        <v>8</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="6">
+        <v>9</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="6">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="6">
+        <v>11</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="6">
+        <v>12</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="6">
+        <v>13</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="6">
+        <v>14</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="6">
+        <v>15</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="6">
+        <v>16</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:B90"/>
   <sheetViews>
@@ -3429,12 +3848,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F8"/>
+  <dimension ref="B2:K21"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3498,22 +3917,123 @@
         <v>457</v>
       </c>
     </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="17" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="K17" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="18" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="19" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J19">
+        <v>2</v>
+      </c>
+      <c r="K19" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="20" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J20">
+        <v>3</v>
+      </c>
+      <c r="K20" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="21" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J21">
+        <v>4</v>
+      </c>
+      <c r="K21" t="s">
+        <v>464</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:D3"/>
+  <dimension ref="B3:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>469</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.85546875" customWidth="1"/>
     <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3528,12 +4048,98 @@
         <v>459</v>
       </c>
     </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>470</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D4" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D5" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>166</v>
+      </c>
+      <c r="D8" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>166</v>
+      </c>
+      <c r="D9" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>166</v>
+      </c>
+      <c r="D10" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>166</v>
+      </c>
+      <c r="D11" t="s">
+        <v>478</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3582,8 +4188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C35"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S34" sqref="S34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3899,6 +4505,146 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="L41" sqref="L41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E4" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="F4" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E5" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F5" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>134</v>
+      </c>
+      <c r="F6" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>512</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D2:F9"/>
   <sheetViews>
@@ -3963,12 +4709,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:I34"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4200,7 +4946,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D1:I15"/>
   <sheetViews>
@@ -4308,7 +5054,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B10"/>
   <sheetViews>
@@ -4369,7 +5115,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:D13"/>
   <sheetViews>
@@ -4448,201 +5194,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="8.85546875" style="3"/>
-    <col min="3" max="3" width="17.85546875" customWidth="1"/>
-    <col min="4" max="4" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="6">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="6">
-        <v>2</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="6">
-        <v>3</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="6">
-        <v>4</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="6">
-        <v>5</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="6">
-        <v>6</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="6">
-        <v>7</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="6">
-        <v>8</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="6">
-        <v>9</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="6">
-        <v>10</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="6">
-        <v>11</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="6">
-        <v>12</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="6">
-        <v>13</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="6">
-        <v>14</v>
-      </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="6">
-        <v>15</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="6">
-        <v>16</v>
-      </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/laravel-menu.xlsx
+++ b/laravel-menu.xlsx
@@ -1,54 +1,47 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MENU\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5353A58-F033-4110-B380-B5372335FE81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="849" activeTab="3"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="958" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="menu" sheetId="1" r:id="rId1"/>
     <sheet name="problem" sheetId="12" r:id="rId2"/>
     <sheet name="folder" sheetId="4" r:id="rId3"/>
     <sheet name="ORM" sheetId="16" r:id="rId4"/>
-    <sheet name="error" sheetId="3" r:id="rId5"/>
-    <sheet name="script" sheetId="2" r:id="rId6"/>
-    <sheet name="software" sheetId="9" r:id="rId7"/>
-    <sheet name="lifecycle" sheetId="5" r:id="rId8"/>
-    <sheet name="environment" sheetId="6" r:id="rId9"/>
-    <sheet name="function" sheetId="7" r:id="rId10"/>
-    <sheet name="http" sheetId="10" r:id="rId11"/>
-    <sheet name="validation" sheetId="11" r:id="rId12"/>
-    <sheet name="logging" sheetId="14" r:id="rId13"/>
-    <sheet name="librabry" sheetId="13" r:id="rId14"/>
-    <sheet name="exception" sheetId="15" r:id="rId15"/>
-    <sheet name="packages" sheetId="8" r:id="rId16"/>
+    <sheet name="Security" sheetId="17" r:id="rId5"/>
+    <sheet name="error" sheetId="3" r:id="rId6"/>
+    <sheet name="script" sheetId="2" r:id="rId7"/>
+    <sheet name="software" sheetId="9" r:id="rId8"/>
+    <sheet name="lifecycle" sheetId="5" r:id="rId9"/>
+    <sheet name="environment" sheetId="6" r:id="rId10"/>
+    <sheet name="function" sheetId="7" r:id="rId11"/>
+    <sheet name="http" sheetId="10" r:id="rId12"/>
+    <sheet name="validation" sheetId="11" r:id="rId13"/>
+    <sheet name="logging" sheetId="14" r:id="rId14"/>
+    <sheet name="librabry" sheetId="13" r:id="rId15"/>
+    <sheet name="exception" sheetId="15" r:id="rId16"/>
+    <sheet name="packages" sheetId="8" r:id="rId17"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="525">
   <si>
     <t>tải xampp</t>
   </si>
@@ -326,12 +319,6 @@
     <t>nó sẽ thực hiện lệnh tái cấu trúc lại DB</t>
   </si>
   <si>
-    <t>redirect</t>
-  </si>
-  <si>
-    <t>nhận request sau đó chuyển hướng</t>
-  </si>
-  <si>
     <t>php artisan make:seeder UserSeeder</t>
   </si>
   <si>
@@ -341,9 +328,6 @@
     <t>view</t>
   </si>
   <si>
-    <t>nhận request sau đó render ra view</t>
-  </si>
-  <si>
     <t>php artisan db:seed --class=UserSeeder</t>
   </si>
   <si>
@@ -486,9 +470,6 @@
   </si>
   <si>
     <t>::</t>
-  </si>
-  <si>
-    <t>được sử dụng để truy cập đến các phương thức tĩnh hoặc thuộc tính của một lớp mà không cần tạo đối tượng của lớp đó</t>
   </si>
   <si>
     <t>group</t>
@@ -1607,12 +1588,60 @@
   <si>
     <t>$posts = $user-&gt;posts; // Dữ liệu của bài viết sẽ được tải chỉ khi bạn truy cập vào thuộc tính 'posts'</t>
   </si>
+  <si>
+    <t>các entity con được load ra chỉ khi chúng được truy cập lần đầu tiên. Đơn giản là hoãn lại việc load các dữ liệu ở các enttiy liên quan cho đến khi bạn yêu cầu nó</t>
+  </si>
+  <si>
+    <t>Eager Loading</t>
+  </si>
+  <si>
+    <t>Eager loading giúp bạn load tất cả các entity trong 1 câu lệnh, tất cả các entity con sẽ được load ra trong 1 lần gọi duy nhất</t>
+  </si>
+  <si>
+    <t>Explicit Loading</t>
+  </si>
+  <si>
+    <t>Có nhiều tùy chọn để disable tính năng Lazyloading trong Entity Framework. Sau khi tắt Lazy Loading, bạn có thể vẫn load các enttiy liên quan bằng cách gọi tường minh phương thức Load() để tải các entity liên quan. Có 2 cách sử dụng phương thức Load, Reference và Collection (để load collections):</t>
+  </si>
+  <si>
+    <t>Khi nào sử dụng cái gì:</t>
+  </si>
+  <si>
+    <t>1. Sử dụng Eager loading khi các mối quan hệ không quá nhiều. Vì thế Eager loading là cách tối để giảm lượng query đến server vì chỉ có 1 query duy nhất.</t>
+  </si>
+  <si>
+    <t>2. Sử dụng Eager loading khi bạn chắc chắn bạn sẽ sử dụng các entity liên quan với entity chính ở nhiều nơi và nhiều lần.</t>
+  </si>
+  <si>
+    <t>3. Sử dụng Lazyloading khi bạn sử dụng qua nhệ 1-N</t>
+  </si>
+  <si>
+    <t>4. Sử dụng Lazyloading khi bạn chắc chắn bạn không sử dụng các entity liên quan ngay lập tức.</t>
+  </si>
+  <si>
+    <t>5. Khi bạn tắt tính năng Lazyloading, sử dụng Explicit loading khi bạn không chắc rằng bạn sẽ có sử dụng entity trước đó hay không.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">static domain : https://nationally-distinct-lioness.ngrok-free.app </t>
+  </si>
+  <si>
+    <t>lệnh : ngrok http --domain=nationally-distinct-lioness.ngrok-free.app 8000</t>
+  </si>
+  <si>
+    <t>account ngrok: phandong.hungthinhme@gmail.com/phandong752</t>
+  </si>
+  <si>
+    <t>để truy cập static method hoặc thuộc tính của một lớp mà không cần tạo đối tượng của lớp đó</t>
+  </si>
+  <si>
+    <t>gom nhóm lại cho gọn</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1646,6 +1675,13 @@
       <color rgb="FF0C0D0E"/>
       <name val="Cascadia Mono"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1684,7 +1720,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -1698,10 +1734,11 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2065,16 +2102,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D2:V190"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="D2:V192"/>
   <sheetViews>
-    <sheetView topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="H187" sqref="H187"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="I100" sqref="I100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="4:11" x14ac:dyDescent="0.3">
       <c r="F2" t="s">
         <v>0</v>
       </c>
@@ -2082,10 +2119,10 @@
         <v>1</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="3" spans="4:11" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="3" spans="4:11" x14ac:dyDescent="0.3">
       <c r="F3" t="s">
         <v>2</v>
       </c>
@@ -2093,15 +2130,15 @@
         <v>1</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="4" spans="4:11" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="4" spans="4:11" x14ac:dyDescent="0.3">
       <c r="K4" s="1" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="6" spans="4:11" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="6" spans="4:11" x14ac:dyDescent="0.3">
       <c r="F6" t="s">
         <v>3</v>
       </c>
@@ -2109,227 +2146,227 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E22" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D24" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D25" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D27" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D29" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D30" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D33" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D34" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D35" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D36" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D37" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D38" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D39" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D41" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D42" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D43" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D44" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D45" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D46" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D47" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="48" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D48" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D49" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="52" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D52" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="53" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:7" x14ac:dyDescent="0.3">
       <c r="E53" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="54" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:7" x14ac:dyDescent="0.3">
       <c r="F54" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="55" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:7" x14ac:dyDescent="0.3">
       <c r="F55" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="56" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:7" x14ac:dyDescent="0.3">
       <c r="F56" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="57" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:7" x14ac:dyDescent="0.3">
       <c r="F57" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="58" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:7" x14ac:dyDescent="0.3">
       <c r="F58" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="59" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D59" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="60" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:7" x14ac:dyDescent="0.3">
       <c r="E60" t="s">
         <v>49</v>
       </c>
@@ -2337,7 +2374,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="61" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:7" x14ac:dyDescent="0.3">
       <c r="E61" t="s">
         <v>51</v>
       </c>
@@ -2345,37 +2382,37 @@
         <v>52</v>
       </c>
     </row>
-    <row r="62" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:7" x14ac:dyDescent="0.3">
       <c r="E62" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="63" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:7" x14ac:dyDescent="0.3">
       <c r="E63" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="64" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:7" x14ac:dyDescent="0.3">
       <c r="E64" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="65" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E65" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="66" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E66" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="67" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D67" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="68" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E68" t="s">
         <v>63</v>
       </c>
@@ -2383,7 +2420,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="69" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E69" t="s">
         <v>67</v>
       </c>
@@ -2391,7 +2428,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E70" t="s">
         <v>71</v>
       </c>
@@ -2399,22 +2436,22 @@
         <v>72</v>
       </c>
     </row>
-    <row r="71" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E71" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="72" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E72" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="73" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E73" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="74" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E74" t="s">
         <v>84</v>
       </c>
@@ -2422,815 +2459,788 @@
         <v>85</v>
       </c>
     </row>
-    <row r="75" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E75" t="s">
-        <v>88</v>
-      </c>
-      <c r="F75" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="76" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E76" t="s">
-        <v>92</v>
-      </c>
-      <c r="F76" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="77" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E77" t="s">
-        <v>96</v>
-      </c>
-      <c r="F77" t="s">
+    <row r="79" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D79" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="80" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D80" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E80" s="2"/>
+    </row>
+    <row r="81" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="E81" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F81" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="82" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="E82" t="s">
+        <v>129</v>
+      </c>
+      <c r="F82" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="83" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="E83" t="s">
+        <v>131</v>
+      </c>
+      <c r="F83" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="84" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="E84" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="85" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="E85" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="88" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D88" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="89" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="E89" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="F89" s="10"/>
+      <c r="G89" s="10"/>
+      <c r="H89" s="10"/>
+      <c r="I89" s="10"/>
+      <c r="J89" s="10"/>
+      <c r="K89" s="10"/>
+      <c r="L89" s="10"/>
+      <c r="M89" s="10"/>
+      <c r="N89" s="10"/>
+      <c r="O89" s="10"/>
+      <c r="P89" s="10"/>
+      <c r="Q89" s="10"/>
+      <c r="R89" s="10"/>
+    </row>
+    <row r="90" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="E90" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="91" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="E91" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="92" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="E92" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="93" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="E93" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="94" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="E94" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="97" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D97" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E97" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="98" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D98" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="78" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E78" t="s">
-        <v>100</v>
-      </c>
-      <c r="F78" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="79" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D79" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="80" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D80" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E80" s="2"/>
-    </row>
-    <row r="81" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="E81" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F81" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="82" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="E82" t="s">
-        <v>132</v>
-      </c>
-      <c r="F82" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="83" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="E83" t="s">
-        <v>134</v>
-      </c>
-      <c r="F83" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="84" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="E84" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="85" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="E85" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="88" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D88" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="89" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="E89" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="F89" s="9"/>
-      <c r="G89" s="9"/>
-      <c r="H89" s="9"/>
-      <c r="I89" s="9"/>
-      <c r="J89" s="9"/>
-      <c r="K89" s="9"/>
-      <c r="L89" s="9"/>
-      <c r="M89" s="9"/>
-      <c r="N89" s="9"/>
-      <c r="O89" s="9"/>
-      <c r="P89" s="9"/>
-      <c r="Q89" s="9"/>
-      <c r="R89" s="9"/>
-    </row>
-    <row r="90" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="E90" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="91" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="E91" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="92" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="E92" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="93" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="E93" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="94" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="E94" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="96" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D96" t="s">
+      <c r="E98" t="s">
         <v>145</v>
       </c>
-      <c r="E96" t="s">
+    </row>
+    <row r="100" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D100" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="97" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D97" s="1" t="s">
+    <row r="101" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="E101" t="s">
         <v>147</v>
       </c>
-      <c r="E97" t="s">
+      <c r="F101" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="98" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D98" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E98" t="s">
+    <row r="102" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="F102" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="100" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D100" s="1" t="s">
+      <c r="H102" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="101" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="E101" t="s">
+      <c r="R102" t="s">
         <v>151</v>
       </c>
-      <c r="F101" t="s">
+    </row>
+    <row r="103" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="F103" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="102" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="F102" t="s">
+      <c r="H103" t="s">
         <v>153</v>
       </c>
-      <c r="H102" t="s">
+      <c r="R103" t="s">
         <v>154</v>
       </c>
-      <c r="R102" t="s">
+    </row>
+    <row r="104" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="E104" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="103" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="F103" t="s">
+      <c r="F104" t="s">
         <v>156</v>
       </c>
-      <c r="H103" t="s">
+    </row>
+    <row r="105" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D105" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="R103" t="s">
+      <c r="E105" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="104" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="E104" t="s">
+    <row r="106" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D106" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="F104" t="s">
+      <c r="E106" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="105" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D105" s="1" t="s">
+    <row r="108" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D108" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="E105" t="s">
+    </row>
+    <row r="109" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D109" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="106" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D106" s="1" t="s">
+      <c r="E109" t="s">
         <v>163</v>
       </c>
-      <c r="E106" t="s">
+    </row>
+    <row r="110" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D110" t="s">
+        <v>162</v>
+      </c>
+      <c r="E110" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="108" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D108" s="1" t="s">
+    <row r="111" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D111" t="s">
+        <v>162</v>
+      </c>
+      <c r="E111" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="109" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D109" t="s">
+    <row r="112" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D112" t="s">
+        <v>162</v>
+      </c>
+      <c r="E112" t="s">
         <v>166</v>
       </c>
-      <c r="E109" t="s">
+    </row>
+    <row r="113" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D113" t="s">
+        <v>162</v>
+      </c>
+      <c r="E113" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="110" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D110" t="s">
-        <v>166</v>
-      </c>
-      <c r="E110" t="s">
+    <row r="114" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="E114" t="s">
+        <v>162</v>
+      </c>
+      <c r="F114" s="2" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="111" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D111" t="s">
-        <v>166</v>
-      </c>
-      <c r="E111" t="s">
+      <c r="H114" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="112" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D112" t="s">
-        <v>166</v>
-      </c>
-      <c r="E112" t="s">
+    <row r="115" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="E115" t="s">
+        <v>162</v>
+      </c>
+      <c r="F115" s="2" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="113" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D113" t="s">
-        <v>166</v>
-      </c>
-      <c r="E113" t="s">
+      <c r="H115" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="114" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="E114" t="s">
-        <v>166</v>
-      </c>
-      <c r="F114" s="2" t="s">
+    <row r="116" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="E116" t="s">
+        <v>162</v>
+      </c>
+      <c r="F116" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="H114" t="s">
+    </row>
+    <row r="117" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="E117" t="s">
+        <v>162</v>
+      </c>
+      <c r="F117" s="2" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="115" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="E115" t="s">
-        <v>166</v>
-      </c>
-      <c r="F115" s="2" t="s">
+      <c r="H117" t="s">
         <v>174</v>
       </c>
-      <c r="H115" t="s">
+    </row>
+    <row r="118" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="E118" t="s">
+        <v>162</v>
+      </c>
+      <c r="F118" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="116" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="E116" t="s">
-        <v>166</v>
-      </c>
-      <c r="F116" s="2" t="s">
+      <c r="H118" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="117" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="E117" t="s">
-        <v>166</v>
-      </c>
-      <c r="F117" s="2" t="s">
+    <row r="119" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D119" t="s">
+        <v>162</v>
+      </c>
+      <c r="E119" t="s">
         <v>177</v>
       </c>
-      <c r="H117" t="s">
+      <c r="H119" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="118" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="E118" t="s">
-        <v>166</v>
-      </c>
-      <c r="F118" s="2" t="s">
+    <row r="120" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D120" t="s">
+        <v>162</v>
+      </c>
+      <c r="E120" t="s">
         <v>179</v>
       </c>
-      <c r="H118" t="s">
+    </row>
+    <row r="122" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D122" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="119" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D119" t="s">
-        <v>166</v>
-      </c>
-      <c r="E119" t="s">
+    <row r="123" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D123" t="s">
         <v>181</v>
       </c>
-      <c r="H119" t="s">
+    </row>
+    <row r="124" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D124" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="120" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D120" t="s">
-        <v>166</v>
-      </c>
-      <c r="E120" t="s">
+    <row r="125" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D125" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="122" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D122" t="s">
+    <row r="126" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D126" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="123" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D123" t="s">
+    <row r="127" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D127" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="124" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D124" t="s">
+    <row r="129" spans="4:21" x14ac:dyDescent="0.3">
+      <c r="D129" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="125" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D125" t="s">
+      <c r="H129" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="126" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D126" t="s">
+    <row r="130" spans="4:21" x14ac:dyDescent="0.3">
+      <c r="D130" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="127" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D127" t="s">
+      <c r="H130" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="129" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D129" t="s">
+    <row r="131" spans="4:21" x14ac:dyDescent="0.3">
+      <c r="D131" t="s">
         <v>190</v>
       </c>
-      <c r="H129" t="s">
+      <c r="H131" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="130" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D130" t="s">
+    <row r="132" spans="4:21" x14ac:dyDescent="0.3">
+      <c r="D132" t="s">
         <v>192</v>
       </c>
-      <c r="H130" t="s">
+      <c r="H132" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="131" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D131" t="s">
+    <row r="133" spans="4:21" x14ac:dyDescent="0.3">
+      <c r="D133" t="s">
         <v>194</v>
       </c>
-      <c r="H131" t="s">
+      <c r="H133" t="s">
         <v>195</v>
-      </c>
-    </row>
-    <row r="132" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D132" t="s">
-        <v>196</v>
-      </c>
-      <c r="H132" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="133" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D133" t="s">
-        <v>198</v>
-      </c>
-      <c r="H133" t="s">
-        <v>199</v>
       </c>
       <c r="S133">
         <v>1</v>
       </c>
       <c r="T133" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="134" spans="4:21" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="134" spans="4:21" x14ac:dyDescent="0.3">
       <c r="U134" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="135" spans="4:21" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="135" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D135" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="U135" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="136" spans="4:21" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="136" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D136">
         <v>1</v>
       </c>
       <c r="E136" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="U136" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="137" spans="4:21" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="137" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D137">
         <v>2</v>
       </c>
       <c r="E137" t="s">
+        <v>201</v>
+      </c>
+      <c r="U137" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="138" spans="4:21" x14ac:dyDescent="0.3">
+      <c r="D138" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="U138" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="139" spans="4:21" x14ac:dyDescent="0.3">
+      <c r="E139" t="s">
         <v>205</v>
       </c>
-      <c r="U137" t="s">
+      <c r="U139" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="138" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D138" s="1" t="s">
+    <row r="140" spans="4:21" x14ac:dyDescent="0.3">
+      <c r="E140" t="s">
         <v>207</v>
       </c>
-      <c r="U138" t="s">
+      <c r="U140" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="139" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="E139" t="s">
+    <row r="141" spans="4:21" x14ac:dyDescent="0.3">
+      <c r="U141" t="s">
         <v>209</v>
       </c>
-      <c r="U139" t="s">
+    </row>
+    <row r="142" spans="4:21" x14ac:dyDescent="0.3">
+      <c r="D142" s="1" t="s">
         <v>210</v>
-      </c>
-    </row>
-    <row r="140" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="E140" t="s">
-        <v>211</v>
-      </c>
-      <c r="U140" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="141" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="U141" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="142" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D142" s="1" t="s">
-        <v>214</v>
       </c>
       <c r="S142">
         <v>2</v>
       </c>
       <c r="T142" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="143" spans="4:21" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="143" spans="4:21" x14ac:dyDescent="0.3">
       <c r="E143" t="s">
+        <v>211</v>
+      </c>
+      <c r="U143" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="144" spans="4:21" x14ac:dyDescent="0.3">
+      <c r="E144" t="s">
+        <v>213</v>
+      </c>
+      <c r="U144" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="145" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="F145" t="s">
         <v>215</v>
       </c>
-      <c r="U143" t="s">
+      <c r="U145" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="144" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="E144" t="s">
+    <row r="146" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="F146" t="s">
         <v>217</v>
       </c>
-      <c r="U144" t="s">
+      <c r="U146" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="145" spans="4:22" x14ac:dyDescent="0.25">
-      <c r="F145" t="s">
+    <row r="147" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="F147" t="s">
         <v>219</v>
       </c>
-      <c r="U145" t="s">
+      <c r="H147" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="146" spans="4:22" x14ac:dyDescent="0.25">
-      <c r="F146" t="s">
+      <c r="U147" t="s">
         <v>221</v>
       </c>
-      <c r="U146" t="s">
+    </row>
+    <row r="148" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="E148" t="s">
         <v>222</v>
-      </c>
-    </row>
-    <row r="147" spans="4:22" x14ac:dyDescent="0.25">
-      <c r="F147" t="s">
-        <v>223</v>
-      </c>
-      <c r="H147" t="s">
-        <v>224</v>
-      </c>
-      <c r="U147" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="148" spans="4:22" x14ac:dyDescent="0.25">
-      <c r="E148" t="s">
-        <v>226</v>
       </c>
       <c r="S148">
         <v>3</v>
       </c>
       <c r="T148" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="149" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="E149" t="s">
+        <v>224</v>
+      </c>
+      <c r="U149" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="150" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="E150" t="s">
+        <v>226</v>
+      </c>
+      <c r="U150" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="149" spans="4:22" x14ac:dyDescent="0.25">
-      <c r="E149" t="s">
+    <row r="151" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="U151" t="s">
         <v>228</v>
       </c>
-      <c r="U149" t="s">
+    </row>
+    <row r="152" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D152" s="1" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="150" spans="4:22" x14ac:dyDescent="0.25">
-      <c r="E150" t="s">
+      <c r="U152" t="s">
         <v>230</v>
       </c>
-      <c r="U150" t="s">
+    </row>
+    <row r="153" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="E153" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="151" spans="4:22" x14ac:dyDescent="0.25">
-      <c r="U151" t="s">
+      <c r="U153" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="152" spans="4:22" x14ac:dyDescent="0.25">
-      <c r="D152" s="1" t="s">
+    <row r="154" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="E154" t="s">
         <v>233</v>
       </c>
-      <c r="U152" t="s">
+      <c r="U154" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="153" spans="4:22" x14ac:dyDescent="0.25">
-      <c r="E153" t="s">
+    <row r="155" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="E155" t="s">
         <v>235</v>
-      </c>
-      <c r="U153" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="154" spans="4:22" x14ac:dyDescent="0.25">
-      <c r="E154" t="s">
-        <v>237</v>
-      </c>
-      <c r="U154" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="155" spans="4:22" x14ac:dyDescent="0.25">
-      <c r="E155" t="s">
-        <v>239</v>
       </c>
       <c r="S155">
         <v>4</v>
       </c>
       <c r="T155" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="156" spans="4:22" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="156" spans="4:22" x14ac:dyDescent="0.3">
       <c r="E156" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="157" spans="4:22" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="157" spans="4:22" x14ac:dyDescent="0.3">
       <c r="E157" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="158" spans="4:22" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="158" spans="4:22" x14ac:dyDescent="0.3">
       <c r="R158" t="s">
         <v>1</v>
       </c>
       <c r="S158" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="T158" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="159" spans="4:22" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="159" spans="4:22" x14ac:dyDescent="0.3">
       <c r="D159" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="E159" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="R159" t="s">
         <v>1</v>
       </c>
       <c r="S159" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="T159" t="s">
         <v>87</v>
       </c>
       <c r="V159" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="160" spans="4:22" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="160" spans="4:22" x14ac:dyDescent="0.3">
       <c r="E160" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="R160" t="s">
         <v>1</v>
       </c>
       <c r="S160" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="T160" t="s">
         <v>74</v>
       </c>
       <c r="V160" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="161" spans="4:20" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="161" spans="4:20" x14ac:dyDescent="0.3">
       <c r="E161" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="R161" t="s">
         <v>1</v>
       </c>
       <c r="S161" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="T161" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="162" spans="4:20" x14ac:dyDescent="0.3">
+      <c r="S162" t="s">
+        <v>162</v>
+      </c>
+      <c r="T162" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="163" spans="4:20" x14ac:dyDescent="0.3">
+      <c r="D163" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="E163" s="11" t="s">
+        <v>522</v>
+      </c>
+      <c r="S163" t="s">
+        <v>162</v>
+      </c>
+      <c r="T163" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="164" spans="4:20" x14ac:dyDescent="0.3">
+      <c r="E164" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="162" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="S162" t="s">
-        <v>166</v>
-      </c>
-      <c r="T162" t="s">
+      <c r="S164" t="s">
+        <v>162</v>
+      </c>
+      <c r="T164" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="163" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D163" s="1" t="s">
+    <row r="165" spans="4:20" x14ac:dyDescent="0.3">
+      <c r="E165" t="s">
         <v>252</v>
       </c>
-      <c r="S163" t="s">
-        <v>166</v>
-      </c>
-      <c r="T163" t="s">
+      <c r="S165" t="s">
+        <v>162</v>
+      </c>
+      <c r="T165" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="164" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="E164" t="s">
+    <row r="166" spans="4:20" x14ac:dyDescent="0.3">
+      <c r="E166" t="s">
         <v>254</v>
       </c>
-      <c r="S164" t="s">
-        <v>166</v>
-      </c>
-      <c r="T164" t="s">
+    </row>
+    <row r="167" spans="4:20" x14ac:dyDescent="0.3">
+      <c r="E167" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="165" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="E165" t="s">
+    <row r="168" spans="4:20" x14ac:dyDescent="0.3">
+      <c r="E168" t="s">
         <v>256</v>
       </c>
-      <c r="S165" t="s">
-        <v>166</v>
-      </c>
-      <c r="T165" t="s">
+    </row>
+    <row r="169" spans="4:20" x14ac:dyDescent="0.3">
+      <c r="E169" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="166" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="E166" t="s">
+    <row r="170" spans="4:20" x14ac:dyDescent="0.3">
+      <c r="F170" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="167" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="E167" t="s">
+    <row r="171" spans="4:20" x14ac:dyDescent="0.3">
+      <c r="F171" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="168" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="E168" t="s">
+    <row r="172" spans="4:20" x14ac:dyDescent="0.3">
+      <c r="F172" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="169" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="E169" t="s">
+    <row r="173" spans="4:20" x14ac:dyDescent="0.3">
+      <c r="F173" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="170" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="F170" t="s">
+    <row r="174" spans="4:20" x14ac:dyDescent="0.3">
+      <c r="E174" s="11" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="175" spans="4:20" x14ac:dyDescent="0.3">
+      <c r="E175" s="11" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="176" spans="4:20" x14ac:dyDescent="0.3">
+      <c r="D176" s="1" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="171" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="F171" t="s">
+    <row r="177" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="E177" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="172" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="F172" t="s">
+    <row r="178" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="E178" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="173" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="F173" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="174" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D174" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="175" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="E175" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="176" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="E176" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="179" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D179" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="J179" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="180" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="E180" t="s">
+    <row r="181" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D181" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="J181" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="182" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="E182" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="184" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="E184" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="185" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="E185" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="186" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="E186" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="187" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="E187" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="182" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="E182" t="s">
+    <row r="188" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="E188" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="183" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="E183" t="s">
+    <row r="189" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="E189" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="184" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="E184" t="s">
+    <row r="190" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="E190" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="185" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="E185" t="s">
+    <row r="191" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="E191" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="186" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="E186" t="s">
+    <row r="192" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="E192" t="s">
         <v>487</v>
-      </c>
-    </row>
-    <row r="187" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="E187" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="188" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="E188" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="189" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="E189" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="190" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="E190" t="s">
-        <v>491</v>
       </c>
     </row>
   </sheetData>
@@ -3243,196 +3253,80 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="C3:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="8.85546875" style="3"/>
-    <col min="3" max="3" width="17.85546875" customWidth="1"/>
-    <col min="4" max="4" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.7109375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="6">
+    <row r="3" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C3">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="6">
+      <c r="D3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="4" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C4">
         <v>2</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="6">
+      <c r="D4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C5">
         <v>3</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="6">
+      <c r="D5" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C6">
         <v>4</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="6">
-        <v>5</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="6">
-        <v>6</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="6">
-        <v>7</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="6">
-        <v>8</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="6">
-        <v>9</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="6">
-        <v>10</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="6">
-        <v>11</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="6">
-        <v>12</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="6">
-        <v>13</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="6">
-        <v>14</v>
-      </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="6">
-        <v>15</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="6">
-        <v>16</v>
-      </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
+      <c r="D6" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="13" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3440,406 +3334,619 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="B2:E18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="8.88671875" style="3"/>
+    <col min="3" max="3" width="17.88671875" customWidth="1"/>
+    <col min="4" max="4" width="79.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B2" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B3" s="6">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="6">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="6">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="6">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="6">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="6">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="6">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="6">
+        <v>8</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="6">
+        <v>9</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="6">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="6">
+        <v>11</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="6">
+        <v>12</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B15" s="6">
+        <v>13</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B16" s="6">
+        <v>14</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="6">
+        <v>15</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18" s="6">
+        <v>16</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A3:B90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G83" sqref="G83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B66" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B67" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B68" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B69" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B70" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B71" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B72" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B73" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B74" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B75" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B76" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B79" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B80" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B81" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B82" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B71" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B72" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B73" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B74" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B75" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B76" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B83" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B84" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B87" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B88" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B89" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B90" t="s">
         <v>442</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B79" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B80" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B81" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B82" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B83" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B84" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B87" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B88" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B89" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B90" t="s">
-        <v>446</v>
       </c>
     </row>
   </sheetData>
@@ -3848,134 +3955,134 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="B2:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="F6" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="17" spans="10:11" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="17" spans="10:11" x14ac:dyDescent="0.3">
       <c r="K17" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="18" spans="10:11" x14ac:dyDescent="0.25">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="18" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J18">
         <v>1</v>
       </c>
       <c r="K18" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="19" spans="10:11" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="19" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J19">
         <v>2</v>
       </c>
       <c r="K19" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="20" spans="10:11" x14ac:dyDescent="0.25">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="20" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J20">
         <v>3</v>
       </c>
       <c r="K20" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="21" spans="10:11" x14ac:dyDescent="0.25">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="21" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J21">
         <v>4</v>
       </c>
       <c r="K21" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
   </sheetData>
@@ -3983,39 +4090,39 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="B3:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
         <v>465</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>469</v>
       </c>
     </row>
   </sheetData>
@@ -4023,37 +4130,37 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="B3:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="56.85546875" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.88671875" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="D3" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
   </sheetData>
@@ -4061,77 +4168,77 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="C3:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="3" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D3" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D4" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D5" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>162</v>
+      </c>
+      <c r="D8" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>166</v>
-      </c>
-      <c r="D4" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>166</v>
-      </c>
-      <c r="D5" t="s">
+    <row r="9" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>162</v>
+      </c>
+      <c r="D9" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E6" t="s">
+    <row r="10" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>162</v>
+      </c>
+      <c r="D10" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E7" t="s">
+    <row r="11" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>162</v>
+      </c>
+      <c r="D11" t="s">
         <v>474</v>
-      </c>
-    </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>166</v>
-      </c>
-      <c r="D8" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>166</v>
-      </c>
-      <c r="D9" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>166</v>
-      </c>
-      <c r="D10" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>166</v>
-      </c>
-      <c r="D11" t="s">
-        <v>478</v>
       </c>
     </row>
   </sheetData>
@@ -4139,44 +4246,44 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
   </sheetData>
@@ -4185,317 +4292,317 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:C35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="S34" sqref="S34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C5" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C6" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C7" t="s">
         <v>270</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C8" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C5" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C9" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C6" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C7" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C8" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C9" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C10" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C11" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C12" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C13" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C14" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C15" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C16" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C17" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C18" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C19" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C20" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C21" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>12</v>
       </c>
       <c r="B22" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C22" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>13</v>
       </c>
       <c r="B23" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C23" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>14</v>
       </c>
       <c r="B24" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C24" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>15</v>
       </c>
       <c r="B25" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C25" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>16</v>
       </c>
       <c r="B26" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C26" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>17</v>
       </c>
       <c r="B27" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C27" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>18</v>
       </c>
       <c r="B28" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C28" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>19</v>
       </c>
       <c r="B29" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C29" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>20</v>
       </c>
       <c r="B30" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C30" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C33" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C34" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C35" t="s">
         <v>310</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C33" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C34" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C35" t="s">
-        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -4505,137 +4612,192 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A2:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="L41" sqref="L41"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="L45" sqref="L45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E2" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E4" s="10" t="s">
-        <v>130</v>
+        <v>490</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E4" s="9" t="s">
+        <v>127</v>
       </c>
       <c r="F4" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E5" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F5" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F6" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E8" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
         <v>512</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>519</v>
       </c>
     </row>
   </sheetData>
@@ -4645,62 +4807,74 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C89B49DB-61B9-44B6-8538-0E4D70E0CB6F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="D2:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D2" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="3" spans="4:6" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="4" spans="4:6" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D4" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="5" spans="4:6" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E5" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="6" spans="4:6" x14ac:dyDescent="0.25">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="6" spans="4:6" x14ac:dyDescent="0.3">
       <c r="F6" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="7" spans="4:6" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="7" spans="4:6" x14ac:dyDescent="0.3">
       <c r="F7" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="8" spans="4:6" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="8" spans="4:6" x14ac:dyDescent="0.3">
       <c r="F8" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="9" spans="4:6" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="9" spans="4:6" x14ac:dyDescent="0.3">
       <c r="F9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -4709,21 +4883,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B3:I34"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="72" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="53.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>55</v>
       </c>
@@ -4731,7 +4905,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
         <v>61</v>
       </c>
@@ -4739,7 +4913,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
         <v>65</v>
       </c>
@@ -4747,7 +4921,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
         <v>69</v>
       </c>
@@ -4755,7 +4929,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
         <v>73</v>
       </c>
@@ -4763,7 +4937,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
         <v>76</v>
       </c>
@@ -4771,7 +4945,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="4" t="s">
         <v>79</v>
       </c>
@@ -4779,7 +4953,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="4" t="s">
         <v>82</v>
       </c>
@@ -4787,7 +4961,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="4" t="s">
         <v>86</v>
       </c>
@@ -4795,7 +4969,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="4" t="s">
         <v>90</v>
       </c>
@@ -4803,141 +4977,141 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C16" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17" s="4" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="4" t="s">
-        <v>98</v>
-      </c>
       <c r="C17" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B18" s="5" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="5" t="s">
+      <c r="C18" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B19" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C19" s="4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="4" t="s">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B20" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C19" s="4" t="s">
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B21" s="4" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="4" t="s">
+      <c r="C21" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C20" s="4" t="s">
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B22" s="4" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="4" t="s">
+      <c r="C22" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C21" s="4" t="s">
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B23" s="4" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="4" t="s">
+      <c r="C23" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="4"/>
       <c r="C24" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B25" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="4" t="s">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B26" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C26" s="4"/>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B27" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C27" s="4" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="4" t="s">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B28" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C26" s="4"/>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="4" t="s">
+      <c r="C28" s="4"/>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B29" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C29" s="4" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="4" t="s">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B30" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C28" s="4"/>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B29" s="4" t="s">
+      <c r="C30" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B30" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B31" s="4" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C31" s="4"/>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B32" s="4" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C32" s="4"/>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B33" s="4" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C33" s="4"/>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B34" s="4" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C34" s="4"/>
     </row>
@@ -4946,252 +5120,171 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="D1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="4:9" x14ac:dyDescent="0.3">
       <c r="E1" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="3" spans="4:9" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="3" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D3" s="1">
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G3" s="7" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="4" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>162</v>
+      </c>
+      <c r="F4" t="s">
+        <v>358</v>
+      </c>
+      <c r="G4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="5" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="F5" t="s">
+        <v>360</v>
+      </c>
+      <c r="G5" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="6" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="F6" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="7" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="F7" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="8" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="F8" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="9" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="G9" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="10" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="G10" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="11" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="G11" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="12" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="G12" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="14" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="F14" t="s">
+        <v>365</v>
+      </c>
+      <c r="G14" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="15" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="F15" t="s">
+        <v>367</v>
+      </c>
+      <c r="G15" s="8" t="s">
         <v>368</v>
-      </c>
-    </row>
-    <row r="4" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="E4" t="s">
-        <v>166</v>
-      </c>
-      <c r="F4" t="s">
-        <v>362</v>
-      </c>
-      <c r="G4" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="5" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="F5" t="s">
-        <v>364</v>
-      </c>
-      <c r="G5" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="6" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="F6" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="7" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="F7" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="8" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="F8" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="9" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="G9" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="10" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="G10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="11" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="G11" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="12" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="G12" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="14" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="F14" t="s">
-        <v>369</v>
-      </c>
-      <c r="G14" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="15" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="F15" t="s">
-        <v>371</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>372</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G3" r:id="rId1"/>
+    <hyperlink ref="G3" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B2:B10"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:D13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="3" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="4" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C6">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="11" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="12" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C12">
-        <v>3</v>
-      </c>
-      <c r="D12" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="13" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C13">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/laravel-menu.xlsx
+++ b/laravel-menu.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MENU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5353A58-F033-4110-B380-B5372335FE81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="958" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="958" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="menu" sheetId="1" r:id="rId1"/>
@@ -30,6 +29,7 @@
     <sheet name="librabry" sheetId="13" r:id="rId15"/>
     <sheet name="exception" sheetId="15" r:id="rId16"/>
     <sheet name="packages" sheetId="8" r:id="rId17"/>
+    <sheet name="hiệu suất web" sheetId="18" r:id="rId18"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="603">
   <si>
     <t>tải xampp</t>
   </si>
@@ -824,9 +824,6 @@
     <t>login authen</t>
   </si>
   <si>
-    <t>chạy lệnh lấy auth ngrok config add-authtoken 2gVUkPLpXJbZcDuO3iV0rkM1CHu_5EAWzpZ7chRk5ayiqTWda</t>
-  </si>
-  <si>
     <t>hiển thị lên online ngrok http http://localhost:8000</t>
   </si>
   <si>
@@ -1635,12 +1632,249 @@
   </si>
   <si>
     <t>gom nhóm lại cho gọn</t>
+  </si>
+  <si>
+    <t>chạy lệnh lấy auth ngrok config add-authtoken 2gfKXJRezzFKG9lNmq8B1AiaYSK_6zRkgDG5cSQoVmgt6vh7J</t>
+  </si>
+  <si>
+    <t>Eloquent là một ORM (Object-Relational Mapping) của Laravel, cho phép bạn làm việc với cơ sở dữ liệu thông qua các đối tượng và model thay vì truy vấn trực tiếp bằng ngôn ngữ SQL. Eloquent giúp bạn tương tác với cơ sở dữ liệu một cách dễ dàng, linh hoạt và mạnh mẽ bằng cách sử dụng các model và các phương thức cung cấp sẵn.</t>
+  </si>
+  <si>
+    <t>Dưới đây là một số đặc điểm và tính năng quan trọng của Eloquent trong Laravel:</t>
+  </si>
+  <si>
+    <t>1. Model:</t>
+  </si>
+  <si>
+    <t>Trong Eloquent, mỗi bảng trong cơ sở dữ liệu được đại diện bởi một model, là một lớp PHP. Model này tương ứng với một bản ghi trong bảng đó và chứa các phương thức để tương tác với cơ sở dữ liệu.</t>
+  </si>
+  <si>
+    <t>2. Mối quan hệ:</t>
+  </si>
+  <si>
+    <t>Eloquent hỗ trợ định nghĩa và quản lý các mối quan hệ giữa các model, bao gồm mối quan hệ một-nhiều, nhiều-một, nhiều-nhiều, và các mối quan hệ phức tạp hơn.</t>
+  </si>
+  <si>
+    <t>3. Truy vấn dữ liệu:</t>
+  </si>
+  <si>
+    <t>Bằng cách sử dụng Eloquent, bạn có thể thực hiện truy vấn dữ liệu vào cơ sở dữ liệu một cách dễ dàng và linh hoạt thông qua các phương thức như find(), where(), all(), create(), update()...</t>
+  </si>
+  <si>
+    <t>4. Tạo, cập nhật, xóa dữ liệu:</t>
+  </si>
+  <si>
+    <t>Eloquent cung cấp các phương thức tiện ích để tạo mới bản ghi, cập nhật bản ghi hiện có, và xóa bản ghi khỏi cơ sở dữ liệu một cách nhanh chóng.</t>
+  </si>
+  <si>
+    <t>5. Sự linh hoạt và dễ mở rộng:</t>
+  </si>
+  <si>
+    <t>Eloquent rất linh hoạt và cho phép bạn mở rộng chức năng bằng cách tạo các phương thức tùy chỉnh trong model hoặc sử dụng các truy vấn phức tạp.</t>
+  </si>
+  <si>
+    <t>Tóm lại, Eloquent là một công cụ mạnh mẽ trong Laravel giúp bạn tương tác với cơ sở dữ liệu một cách dễ dàng và linh hoạt thông qua việc sử dụng các model và các phương thức cung cấp sẵn. Điều này giúp tăng cường sự hiệu quả và tính bảo trì của ứng dụng Laravel của bạn.</t>
+  </si>
+  <si>
+    <t>Eloquent</t>
+  </si>
+  <si>
+    <t>Illuminate\Database\Eloquent\Collection </t>
+  </si>
+  <si>
+    <t>bộ sưu tập</t>
+  </si>
+  <si>
+    <t>ngoại lệ</t>
+  </si>
+  <si>
+    <t>Trong Laravel, khi nói về "instances", chúng ta thường đề cập đến việc tạo và sử dụng các instance của các class, đối tượng hoặc service container. Dưới đây là một số khái niệm thường được liên kết với "instances" trong Laravel:</t>
+  </si>
+  <si>
+    <t>1. Instances của Class:</t>
+  </si>
+  <si>
+    <t>Khi chúng ta tạo một instance của một class trong Laravel, chúng ta có thể sử dụng các đối tượng đó để gọi các phương thức và truy cập các thuộc tính của class đó. Ví dụ:</t>
+  </si>
+  <si>
+    <t>$user = new User();</t>
+  </si>
+  <si>
+    <t>$user-&gt;name = 'John Doe';</t>
+  </si>
+  <si>
+    <t>$user-&gt;save();</t>
+  </si>
+  <si>
+    <t>2. Service Container Instances:</t>
+  </si>
+  <si>
+    <t>Laravel sử dụng Service Container để quản lý và cung cấp các instance của các class một cách dễ dàng. Bằng cách sử dụng dependency injection, chúng ta có thể yêu cầu Laravel cung cấp các instance của các class mà chúng ta cần mà không cần phải tạo chúng thủ công. Ví dụ:</t>
+  </si>
+  <si>
+    <t>class UserController {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    protected $userService;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public function __construct(UserService $userService) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        $this-&gt;userService = $userService;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    }</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>3. Instances của Eloquent Model:</t>
+  </si>
+  <si>
+    <t>Khi chúng ta truy xuất dữ liệu từ cơ sở dữ liệu sử dụng Eloquent, chúng ta tạo các instances của Eloquent Model để đại diện cho bản ghi trong bảng tương ứng. Ví dụ:</t>
+  </si>
+  <si>
+    <t>echo $user-&gt;name;</t>
+  </si>
+  <si>
+    <t>Tóm lại, trong Laravel, "instances" thường đề cập đến các instance của class, đối tượng, hoặc service container mà chúng ta tạo ra và sử dụng trong quá trình phát triển ứng dụng. Sử dụng instances giúp chúng ta tương tác với các phần khác nhau của hệ thống một cách linh hoạt và hiệu quả.</t>
+  </si>
+  <si>
+    <t>instances</t>
+  </si>
+  <si>
+    <t>collections</t>
+  </si>
+  <si>
+    <t>Trong Laravel, Collections là một thành phần mạnh mẽ để xử lý và thao tác với mảng dữ liệu. Collections cung cấp một tập hợp các phương thức tiện ích để lọc, sắp xếp, xác định, biến đổi dữ liệu mảng dễ dàng và linh hoạt.</t>
+  </si>
+  <si>
+    <t>Dưới đây là một số điểm quan trọng về Collections trong Laravel:</t>
+  </si>
+  <si>
+    <t>1. Tính linh hoạt:</t>
+  </si>
+  <si>
+    <t>Collections trong Laravel cho phép bạn thực hiện các hoạt động thao tác với dữ liệu mảng một cách dễ dàng và linh hoạt. Bạn có thể sử dụng các phương thức như filter(), map(), merge(), sort(), groupBy()...</t>
+  </si>
+  <si>
+    <t>2. Chaining methods:</t>
+  </si>
+  <si>
+    <t>Bạn có thể nối các phương thức lại với nhau để thực hiện nhiều hoạt động trên mảng dữ liệu một cách liên tục. Điều này giúp rút ngắn mã nguồn và tăng cường tính rõ ràng của code.</t>
+  </si>
+  <si>
+    <t>3. Tích hợp với Eloquent:</t>
+  </si>
+  <si>
+    <t>Collections thường được trả về khi bạn thực hiện các truy vấn dữ liệu sử dụng Eloquent trong Laravel. Điều này giúp bạn dễ dàng thao tác và biến đổi kết quả truy vấn mà không cần chuyển đổi về mảng thông thường.</t>
+  </si>
+  <si>
+    <t>4. Tiện ích xử lý dữ liệu:</t>
+  </si>
+  <si>
+    <t>Collections cung cấp nhiều phương thức tiện ích để thao tác và xử lý dữ liệu mảng dễ dàng như sum(), avg(), max(), min()...</t>
+  </si>
+  <si>
+    <t>5. Tương thích với dữ liệu dạng mảng:</t>
+  </si>
+  <si>
+    <t>Collections có thể hoạt động với dữ liệu mảng ở nhiều dạng khác nhau như dữ liệu được trả về từ cơ sở dữ liệu, dữ liệu JSON, dữ liệu được truyền qua từ form...</t>
+  </si>
+  <si>
+    <t>Tóm lại, Collections trong Laravel là một công cụ mạnh mẽ giúp bạn thực hiện các phép toán và thao tác với dữ liệu mảng một cách hiệu quả và linh hoạt. Bạn có thể sử dụng Collections để tối ưu hóa mã nguồn và tăng cường hiệu suất trong việc xử lý dữ liệu.</t>
+  </si>
+  <si>
+    <t>php artisan make:model Product -m</t>
+  </si>
+  <si>
+    <t>tạo model product và kết hợp tạo migrate luôn</t>
+  </si>
+  <si>
+    <t>Trong Laravel, có một số kiểu dữ liệu cơ bản mà bạn có thể sử dụng trong các migration như:</t>
+  </si>
+  <si>
+    <t>string: Để lưu trữ chuỗi văn bản.</t>
+  </si>
+  <si>
+    <t>integer: Để lưu trữ số nguyên.</t>
+  </si>
+  <si>
+    <t>bigInteger: Để lưu trữ số nguyên lớn.</t>
+  </si>
+  <si>
+    <t>boolean: Để lưu trữ giá trị boolean (true/false).</t>
+  </si>
+  <si>
+    <t>date: Để lưu trữ ngày tháng.</t>
+  </si>
+  <si>
+    <t>dateTime: Để lưu trữ ngày và giờ.</t>
+  </si>
+  <si>
+    <t>decimal: Để lưu trữ số thực.</t>
+  </si>
+  <si>
+    <t>text: Để lưu trữ văn bản dài.</t>
+  </si>
+  <si>
+    <t>migration</t>
+  </si>
+  <si>
+    <t>php artisan migrate:refresh --seed</t>
+  </si>
+  <si>
+    <t>làm mới db công với làm mới seeder luôn</t>
+  </si>
+  <si>
+    <t>CLS kém</t>
+  </si>
+  <si>
+    <t>hiệu suất thấp hậu quả</t>
+  </si>
+  <si>
+    <t>giảm thứ hạng trên gg</t>
+  </si>
+  <si>
+    <t>tăng tỉ lệ thoát</t>
+  </si>
+  <si>
+    <t>kém trải nghiệm người dùng</t>
+  </si>
+  <si>
+    <t>giải pháp</t>
+  </si>
+  <si>
+    <t>tôi ưu hóa hình ảnh</t>
+  </si>
+  <si>
+    <t>loại bỏ css và js dư thừa</t>
+  </si>
+  <si>
+    <t>sử dụng cache trình duyệt</t>
+  </si>
+  <si>
+    <t>sử dụng CDN, chưa hiểu lắm</t>
+  </si>
+  <si>
+    <t>thiết kế đáp ứng cho tốt trên các thiết bị mobile taplet</t>
+  </si>
+  <si>
+    <t>tối ưu hóa cơ sở dữ liệu, bớt truy vấn</t>
+  </si>
+  <si>
+    <t>…</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1735,10 +1969,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2102,16 +2336,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D2:V192"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D2:V248"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="I100" sqref="I100"/>
+    <sheetView topLeftCell="A217" workbookViewId="0">
+      <selection activeCell="K243" sqref="K243"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="4:11" x14ac:dyDescent="0.25">
       <c r="F2" t="s">
         <v>0</v>
       </c>
@@ -2119,10 +2353,10 @@
         <v>1</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="3" spans="4:11" x14ac:dyDescent="0.3">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="3" spans="4:11" x14ac:dyDescent="0.25">
       <c r="F3" t="s">
         <v>2</v>
       </c>
@@ -2130,15 +2364,15 @@
         <v>1</v>
       </c>
       <c r="K3" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="4" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="K4" s="1" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="4" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="K4" s="1" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="6" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="4:11" x14ac:dyDescent="0.25">
       <c r="F6" t="s">
         <v>3</v>
       </c>
@@ -2146,227 +2380,227 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E22" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D43" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D47" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="48" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D49" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="52" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D52" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="53" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="4:7" x14ac:dyDescent="0.25">
       <c r="E53" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="54" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:7" x14ac:dyDescent="0.25">
       <c r="F54" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="55" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="4:7" x14ac:dyDescent="0.25">
       <c r="F55" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="56" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="4:7" x14ac:dyDescent="0.25">
       <c r="F56" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="57" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="4:7" x14ac:dyDescent="0.25">
       <c r="F57" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="58" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="4:7" x14ac:dyDescent="0.25">
       <c r="F58" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="59" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D59" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="60" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="4:7" x14ac:dyDescent="0.25">
       <c r="E60" t="s">
         <v>49</v>
       </c>
@@ -2374,7 +2608,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="61" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="4:7" x14ac:dyDescent="0.25">
       <c r="E61" t="s">
         <v>51</v>
       </c>
@@ -2382,37 +2616,37 @@
         <v>52</v>
       </c>
     </row>
-    <row r="62" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="4:7" x14ac:dyDescent="0.25">
       <c r="E62" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="63" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="4:7" x14ac:dyDescent="0.25">
       <c r="E63" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="64" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="4:7" x14ac:dyDescent="0.25">
       <c r="E64" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="65" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E65" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="66" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E66" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="67" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D67" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="68" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E68" t="s">
         <v>63</v>
       </c>
@@ -2420,7 +2654,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="69" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E69" t="s">
         <v>67</v>
       </c>
@@ -2428,7 +2662,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E70" t="s">
         <v>71</v>
       </c>
@@ -2436,22 +2670,22 @@
         <v>72</v>
       </c>
     </row>
-    <row r="71" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E71" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="72" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E72" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="73" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E73" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="74" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E74" t="s">
         <v>84</v>
       </c>
@@ -2459,18 +2693,18 @@
         <v>85</v>
       </c>
     </row>
-    <row r="79" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D79" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="80" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D80" s="1" t="s">
         <v>126</v>
       </c>
       <c r="E80" s="2"/>
     </row>
-    <row r="81" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="81" spans="4:18" x14ac:dyDescent="0.25">
       <c r="E81" s="2" t="s">
         <v>127</v>
       </c>
@@ -2478,7 +2712,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="82" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="82" spans="4:18" x14ac:dyDescent="0.25">
       <c r="E82" t="s">
         <v>129</v>
       </c>
@@ -2486,7 +2720,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="83" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="83" spans="4:18" x14ac:dyDescent="0.25">
       <c r="E83" t="s">
         <v>131</v>
       </c>
@@ -2494,65 +2728,65 @@
         <v>132</v>
       </c>
     </row>
-    <row r="84" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="84" spans="4:18" x14ac:dyDescent="0.25">
       <c r="E84" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="85" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="85" spans="4:18" x14ac:dyDescent="0.25">
       <c r="E85" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="88" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="88" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D88" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="89" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="E89" s="10" t="s">
+    <row r="89" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="E89" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="F89" s="10"/>
-      <c r="G89" s="10"/>
-      <c r="H89" s="10"/>
-      <c r="I89" s="10"/>
-      <c r="J89" s="10"/>
-      <c r="K89" s="10"/>
-      <c r="L89" s="10"/>
-      <c r="M89" s="10"/>
-      <c r="N89" s="10"/>
-      <c r="O89" s="10"/>
-      <c r="P89" s="10"/>
-      <c r="Q89" s="10"/>
-      <c r="R89" s="10"/>
-    </row>
-    <row r="90" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="F89" s="11"/>
+      <c r="G89" s="11"/>
+      <c r="H89" s="11"/>
+      <c r="I89" s="11"/>
+      <c r="J89" s="11"/>
+      <c r="K89" s="11"/>
+      <c r="L89" s="11"/>
+      <c r="M89" s="11"/>
+      <c r="N89" s="11"/>
+      <c r="O89" s="11"/>
+      <c r="P89" s="11"/>
+      <c r="Q89" s="11"/>
+      <c r="R89" s="11"/>
+    </row>
+    <row r="90" spans="4:18" x14ac:dyDescent="0.25">
       <c r="E90" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="91" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="91" spans="4:18" x14ac:dyDescent="0.25">
       <c r="E91" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="92" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="92" spans="4:18" x14ac:dyDescent="0.25">
       <c r="E92" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="93" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="93" spans="4:18" x14ac:dyDescent="0.25">
       <c r="E93" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="94" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="94" spans="4:18" x14ac:dyDescent="0.25">
       <c r="E94" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="97" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="97" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D97" s="1" t="s">
         <v>143</v>
       </c>
@@ -2560,7 +2794,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="98" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="98" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D98" s="1" t="s">
         <v>97</v>
       </c>
@@ -2568,12 +2802,12 @@
         <v>145</v>
       </c>
     </row>
-    <row r="100" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="100" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D100" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="101" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="101" spans="4:18" x14ac:dyDescent="0.25">
       <c r="E101" t="s">
         <v>147</v>
       </c>
@@ -2581,7 +2815,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="102" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="102" spans="4:18" x14ac:dyDescent="0.25">
       <c r="F102" t="s">
         <v>149</v>
       </c>
@@ -2592,7 +2826,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="103" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="103" spans="4:18" x14ac:dyDescent="0.25">
       <c r="F103" t="s">
         <v>152</v>
       </c>
@@ -2603,7 +2837,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="104" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="104" spans="4:18" x14ac:dyDescent="0.25">
       <c r="E104" t="s">
         <v>155</v>
       </c>
@@ -2611,7 +2845,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="105" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="105" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D105" s="1" t="s">
         <v>157</v>
       </c>
@@ -2619,7 +2853,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="106" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="106" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D106" s="1" t="s">
         <v>159</v>
       </c>
@@ -2627,12 +2861,12 @@
         <v>160</v>
       </c>
     </row>
-    <row r="108" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="108" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D108" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="109" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="109" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D109" t="s">
         <v>162</v>
       </c>
@@ -2640,7 +2874,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="110" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="110" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D110" t="s">
         <v>162</v>
       </c>
@@ -2648,7 +2882,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="111" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="111" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D111" t="s">
         <v>162</v>
       </c>
@@ -2656,7 +2890,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="112" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="112" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D112" t="s">
         <v>162</v>
       </c>
@@ -2664,7 +2898,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="113" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D113" t="s">
         <v>162</v>
       </c>
@@ -2672,7 +2906,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="114" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="4:8" x14ac:dyDescent="0.25">
       <c r="E114" t="s">
         <v>162</v>
       </c>
@@ -2683,7 +2917,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="115" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="4:8" x14ac:dyDescent="0.25">
       <c r="E115" t="s">
         <v>162</v>
       </c>
@@ -2694,7 +2928,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="116" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="4:8" x14ac:dyDescent="0.25">
       <c r="E116" t="s">
         <v>162</v>
       </c>
@@ -2702,7 +2936,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="117" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="4:8" x14ac:dyDescent="0.25">
       <c r="E117" t="s">
         <v>162</v>
       </c>
@@ -2713,7 +2947,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="118" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="4:8" x14ac:dyDescent="0.25">
       <c r="E118" t="s">
         <v>162</v>
       </c>
@@ -2724,7 +2958,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="119" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D119" t="s">
         <v>162</v>
       </c>
@@ -2735,7 +2969,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="120" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D120" t="s">
         <v>162</v>
       </c>
@@ -2743,37 +2977,37 @@
         <v>179</v>
       </c>
     </row>
-    <row r="122" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="122" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D122" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="123" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="123" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D123" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="124" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="124" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D124" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="125" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D125" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="126" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="126" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D126" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="127" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="127" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D127" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="129" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="129" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D129" t="s">
         <v>186</v>
       </c>
@@ -2781,7 +3015,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="130" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="130" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D130" t="s">
         <v>188</v>
       </c>
@@ -2789,7 +3023,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="131" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="131" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D131" t="s">
         <v>190</v>
       </c>
@@ -2797,7 +3031,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="132" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="132" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D132" t="s">
         <v>192</v>
       </c>
@@ -2805,7 +3039,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="133" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="133" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D133" t="s">
         <v>194</v>
       </c>
@@ -2819,12 +3053,12 @@
         <v>196</v>
       </c>
     </row>
-    <row r="134" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="134" spans="4:21" x14ac:dyDescent="0.25">
       <c r="U134" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="135" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="135" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D135" s="1" t="s">
         <v>198</v>
       </c>
@@ -2832,7 +3066,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="136" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="136" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D136">
         <v>1</v>
       </c>
@@ -2843,7 +3077,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="137" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="137" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D137">
         <v>2</v>
       </c>
@@ -2854,7 +3088,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="138" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="138" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D138" s="1" t="s">
         <v>203</v>
       </c>
@@ -2862,7 +3096,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="139" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="139" spans="4:21" x14ac:dyDescent="0.25">
       <c r="E139" t="s">
         <v>205</v>
       </c>
@@ -2870,7 +3104,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="140" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="140" spans="4:21" x14ac:dyDescent="0.25">
       <c r="E140" t="s">
         <v>207</v>
       </c>
@@ -2878,12 +3112,12 @@
         <v>208</v>
       </c>
     </row>
-    <row r="141" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="141" spans="4:21" x14ac:dyDescent="0.25">
       <c r="U141" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="142" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="142" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D142" s="1" t="s">
         <v>210</v>
       </c>
@@ -2894,7 +3128,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="143" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="143" spans="4:21" x14ac:dyDescent="0.25">
       <c r="E143" t="s">
         <v>211</v>
       </c>
@@ -2902,7 +3136,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="144" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="144" spans="4:21" x14ac:dyDescent="0.25">
       <c r="E144" t="s">
         <v>213</v>
       </c>
@@ -2910,7 +3144,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="145" spans="4:22" x14ac:dyDescent="0.3">
+    <row r="145" spans="4:22" x14ac:dyDescent="0.25">
       <c r="F145" t="s">
         <v>215</v>
       </c>
@@ -2918,7 +3152,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="146" spans="4:22" x14ac:dyDescent="0.3">
+    <row r="146" spans="4:22" x14ac:dyDescent="0.25">
       <c r="F146" t="s">
         <v>217</v>
       </c>
@@ -2926,7 +3160,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="147" spans="4:22" x14ac:dyDescent="0.3">
+    <row r="147" spans="4:22" x14ac:dyDescent="0.25">
       <c r="F147" t="s">
         <v>219</v>
       </c>
@@ -2937,7 +3171,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="148" spans="4:22" x14ac:dyDescent="0.3">
+    <row r="148" spans="4:22" x14ac:dyDescent="0.25">
       <c r="E148" t="s">
         <v>222</v>
       </c>
@@ -2948,7 +3182,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="149" spans="4:22" x14ac:dyDescent="0.3">
+    <row r="149" spans="4:22" x14ac:dyDescent="0.25">
       <c r="E149" t="s">
         <v>224</v>
       </c>
@@ -2956,7 +3190,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="150" spans="4:22" x14ac:dyDescent="0.3">
+    <row r="150" spans="4:22" x14ac:dyDescent="0.25">
       <c r="E150" t="s">
         <v>226</v>
       </c>
@@ -2964,12 +3198,12 @@
         <v>227</v>
       </c>
     </row>
-    <row r="151" spans="4:22" x14ac:dyDescent="0.3">
+    <row r="151" spans="4:22" x14ac:dyDescent="0.25">
       <c r="U151" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="152" spans="4:22" x14ac:dyDescent="0.3">
+    <row r="152" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D152" s="1" t="s">
         <v>229</v>
       </c>
@@ -2977,7 +3211,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="153" spans="4:22" x14ac:dyDescent="0.3">
+    <row r="153" spans="4:22" x14ac:dyDescent="0.25">
       <c r="E153" t="s">
         <v>231</v>
       </c>
@@ -2985,7 +3219,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="154" spans="4:22" x14ac:dyDescent="0.3">
+    <row r="154" spans="4:22" x14ac:dyDescent="0.25">
       <c r="E154" t="s">
         <v>233</v>
       </c>
@@ -2993,7 +3227,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="155" spans="4:22" x14ac:dyDescent="0.3">
+    <row r="155" spans="4:22" x14ac:dyDescent="0.25">
       <c r="E155" t="s">
         <v>235</v>
       </c>
@@ -3004,17 +3238,17 @@
         <v>236</v>
       </c>
     </row>
-    <row r="156" spans="4:22" x14ac:dyDescent="0.3">
+    <row r="156" spans="4:22" x14ac:dyDescent="0.25">
       <c r="E156" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="157" spans="4:22" x14ac:dyDescent="0.3">
+    <row r="157" spans="4:22" x14ac:dyDescent="0.25">
       <c r="E157" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="158" spans="4:22" x14ac:dyDescent="0.3">
+    <row r="158" spans="4:22" x14ac:dyDescent="0.25">
       <c r="R158" t="s">
         <v>1</v>
       </c>
@@ -3025,7 +3259,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="159" spans="4:22" x14ac:dyDescent="0.3">
+    <row r="159" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D159" s="1" t="s">
         <v>240</v>
       </c>
@@ -3045,7 +3279,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="160" spans="4:22" x14ac:dyDescent="0.3">
+    <row r="160" spans="4:22" x14ac:dyDescent="0.25">
       <c r="E160" t="s">
         <v>243</v>
       </c>
@@ -3062,7 +3296,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="161" spans="4:20" x14ac:dyDescent="0.3">
+    <row r="161" spans="4:20" x14ac:dyDescent="0.25">
       <c r="E161" t="s">
         <v>245</v>
       </c>
@@ -3076,7 +3310,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="162" spans="4:20" x14ac:dyDescent="0.3">
+    <row r="162" spans="4:20" x14ac:dyDescent="0.25">
       <c r="S162" t="s">
         <v>162</v>
       </c>
@@ -3084,12 +3318,12 @@
         <v>247</v>
       </c>
     </row>
-    <row r="163" spans="4:20" x14ac:dyDescent="0.3">
+    <row r="163" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D163" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="E163" s="11" t="s">
-        <v>522</v>
+      <c r="E163" s="10" t="s">
+        <v>521</v>
       </c>
       <c r="S163" t="s">
         <v>162</v>
@@ -3098,7 +3332,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="164" spans="4:20" x14ac:dyDescent="0.3">
+    <row r="164" spans="4:20" x14ac:dyDescent="0.25">
       <c r="E164" t="s">
         <v>250</v>
       </c>
@@ -3109,7 +3343,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="165" spans="4:20" x14ac:dyDescent="0.3">
+    <row r="165" spans="4:20" x14ac:dyDescent="0.25">
       <c r="E165" t="s">
         <v>252</v>
       </c>
@@ -3120,127 +3354,352 @@
         <v>253</v>
       </c>
     </row>
-    <row r="166" spans="4:20" x14ac:dyDescent="0.3">
+    <row r="166" spans="4:20" x14ac:dyDescent="0.25">
       <c r="E166" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="167" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="E167" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="167" spans="4:20" x14ac:dyDescent="0.3">
-      <c r="E167" t="s">
+    <row r="168" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="E168" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="168" spans="4:20" x14ac:dyDescent="0.3">
-      <c r="E168" t="s">
+    <row r="169" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="E169" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="169" spans="4:20" x14ac:dyDescent="0.3">
-      <c r="E169" t="s">
+    <row r="170" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="F170" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="170" spans="4:20" x14ac:dyDescent="0.3">
-      <c r="F170" t="s">
+    <row r="171" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="F171" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="171" spans="4:20" x14ac:dyDescent="0.3">
-      <c r="F171" t="s">
+    <row r="172" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="F172" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="172" spans="4:20" x14ac:dyDescent="0.3">
-      <c r="F172" t="s">
+    <row r="173" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="F173" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="173" spans="4:20" x14ac:dyDescent="0.3">
-      <c r="F173" t="s">
+    <row r="174" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="E174" s="10" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="175" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="E175" s="10" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="176" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D176" s="1" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="174" spans="4:20" x14ac:dyDescent="0.3">
-      <c r="E174" s="11" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="175" spans="4:20" x14ac:dyDescent="0.3">
-      <c r="E175" s="11" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="176" spans="4:20" x14ac:dyDescent="0.3">
-      <c r="D176" s="1" t="s">
+    <row r="177" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="E177" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="177" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="E177" t="s">
+    <row r="178" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="E178" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="178" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="E178" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="181" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="181" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D181" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="J181" t="s">
         <v>488</v>
       </c>
-      <c r="J181" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="182" spans="4:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="182" spans="4:10" x14ac:dyDescent="0.25">
       <c r="E182" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="184" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="E184" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="184" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="E184" t="s">
+    <row r="185" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="E185" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="185" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="E185" t="s">
+    <row r="186" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="E186" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="186" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="E186" t="s">
+    <row r="187" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="E187" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="187" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="E187" t="s">
+    <row r="188" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="E188" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="188" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="E188" t="s">
+    <row r="189" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="E189" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="189" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="E189" t="s">
+    <row r="190" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="E190" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="190" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="E190" t="s">
+    <row r="191" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="E191" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="191" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="E191" t="s">
+    <row r="192" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="E192" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="192" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="E192" t="s">
-        <v>487</v>
+    <row r="194" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D194" s="1" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="195" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E195" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="196" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E196" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="198" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E198" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="199" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E199" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="200" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E200" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="201" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E201" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="202" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E202" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="204" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E204" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="205" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E205" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="206" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E206" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="207" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E207" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="208" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E208" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="209" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E209" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="210" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E210" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="211" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E211" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="212" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E212" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="214" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E214" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="215" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E215" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="216" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E216" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="217" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E217" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="219" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D219" s="1" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="220" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E220" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="221" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E221" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="222" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E222" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="224" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E224" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="225" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E225" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="227" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E227" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="228" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E228" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="230" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E230" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="231" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E231" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="233" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E233" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="234" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E234" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="236" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E236" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="237" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E237" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="239" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D239" s="1" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="240" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E240" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="241" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E241" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="242" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E242" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="243" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E243" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="244" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E244" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="245" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E245" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="246" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E246" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="247" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E247" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="248" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E248" t="s">
+        <v>586</v>
       </c>
     </row>
   </sheetData>
@@ -3253,77 +3712,77 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="4" spans="3:4" x14ac:dyDescent="0.3">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="4" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="5" spans="3:4" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C5">
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="6" spans="3:4" x14ac:dyDescent="0.3">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C6">
         <v>4</v>
       </c>
       <c r="D6" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="9" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C9" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="10" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="11" spans="3:4" x14ac:dyDescent="0.3">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C11">
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="12" spans="3:4" x14ac:dyDescent="0.3">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C12">
         <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="13" spans="3:4" x14ac:dyDescent="0.3">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="13" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C13">
         <v>4</v>
       </c>
@@ -3334,36 +3793,36 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.88671875" style="3"/>
-    <col min="3" max="3" width="17.88671875" customWidth="1"/>
-    <col min="4" max="4" width="79.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="3"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="4" max="4" width="79.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="6">
         <v>1</v>
       </c>
@@ -3371,23 +3830,23 @@
         <v>51</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="6">
         <v>2</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>334</v>
-      </c>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="6">
         <v>3</v>
       </c>
@@ -3395,73 +3854,73 @@
         <v>94</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="6">
         <v>4</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>337</v>
-      </c>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="6">
         <v>5</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="6">
         <v>6</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="6">
         <v>7</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>345</v>
-      </c>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="6">
         <v>8</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="6">
         <v>9</v>
       </c>
@@ -3473,7 +3932,7 @@
       </c>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="6">
         <v>10</v>
       </c>
@@ -3485,7 +3944,7 @@
       </c>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="6">
         <v>11</v>
       </c>
@@ -3493,11 +3952,11 @@
         <v>142</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="6">
         <v>12</v>
       </c>
@@ -3505,11 +3964,11 @@
         <v>143</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="6">
         <v>13</v>
       </c>
@@ -3517,7 +3976,7 @@
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="6">
         <v>14</v>
       </c>
@@ -3525,7 +3984,7 @@
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="6">
         <v>15</v>
       </c>
@@ -3533,7 +3992,7 @@
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="6">
         <v>16</v>
       </c>
@@ -3547,406 +4006,406 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:B90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G83" sqref="G83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B3" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B31" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B32" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B33" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B34" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B35" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B38" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B39" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B40" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B41" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B42" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B45" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B46" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B47" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B48" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B49" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B50" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B51" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B52" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B55" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B56" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B57" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B58" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B59" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B60" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B61" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B62" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" s="1" t="s">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B65" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B66" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B67" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B68" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B69" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B70" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B71" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B72" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B73" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B74" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B75" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B76" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" s="1" t="s">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B79" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B80" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B81" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B82" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B83" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B84" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" s="1" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B87" t="s">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B88" t="s">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B89" t="s">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
         <v>441</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B90" t="s">
-        <v>442</v>
       </c>
     </row>
   </sheetData>
@@ -3956,133 +4415,133 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F6" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="17" spans="10:11" x14ac:dyDescent="0.3">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="17" spans="10:11" x14ac:dyDescent="0.25">
       <c r="K17" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="18" spans="10:11" x14ac:dyDescent="0.3">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="18" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J18">
         <v>1</v>
       </c>
       <c r="K18" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="19" spans="10:11" x14ac:dyDescent="0.3">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="19" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J19">
         <v>2</v>
       </c>
       <c r="K19" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="20" spans="10:11" x14ac:dyDescent="0.3">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="20" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J20">
         <v>3</v>
       </c>
       <c r="K20" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="21" spans="10:11" x14ac:dyDescent="0.3">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="21" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J21">
         <v>4</v>
       </c>
       <c r="K21" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
   </sheetData>
@@ -4091,38 +4550,38 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>464</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>465</v>
       </c>
     </row>
   </sheetData>
@@ -4131,36 +4590,50 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="B3:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="56.88671875" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
+        <v>453</v>
+      </c>
+      <c r="D3" t="s">
         <v>454</v>
       </c>
-      <c r="D3" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>466</v>
+        <v>465</v>
+      </c>
+      <c r="D4" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>539</v>
+      </c>
+      <c r="D5" t="s">
+        <v>540</v>
       </c>
     </row>
   </sheetData>
@@ -4169,76 +4642,76 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.3">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>162</v>
       </c>
       <c r="D4" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.3">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>162</v>
       </c>
       <c r="D5" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="E6" t="s">
+    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="E7" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>162</v>
       </c>
       <c r="D8" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.3">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>162</v>
       </c>
       <c r="D9" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="10" spans="3:5" x14ac:dyDescent="0.3">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>162</v>
       </c>
       <c r="D10" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="11" spans="3:5" x14ac:dyDescent="0.3">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>162</v>
       </c>
       <c r="D11" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
   </sheetData>
@@ -4247,43 +4720,123 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D2:E15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="3" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="4" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="5" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="6" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="8" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="9" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="10" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="12" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="13" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="14" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="15" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>602</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
   </sheetData>
@@ -4292,223 +4845,223 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="S34" sqref="S34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C4" t="s">
         <v>266</v>
       </c>
-      <c r="C4" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>162</v>
       </c>
       <c r="C5" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>162</v>
       </c>
       <c r="C6" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>162</v>
       </c>
       <c r="C7" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>162</v>
       </c>
       <c r="C8" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>162</v>
       </c>
       <c r="C9" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C10" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>162</v>
       </c>
       <c r="C11" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>162</v>
       </c>
       <c r="C12" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C13" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C14" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C15" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C16" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C17" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C18" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C19" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C20" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C21" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>12</v>
       </c>
       <c r="B22" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C22" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>13</v>
       </c>
       <c r="B23" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C23" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>14</v>
       </c>
@@ -4516,10 +5069,10 @@
         <v>157</v>
       </c>
       <c r="C24" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>15</v>
       </c>
@@ -4527,54 +5080,54 @@
         <v>190</v>
       </c>
       <c r="C25" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>16</v>
       </c>
       <c r="B26" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C26" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>17</v>
       </c>
       <c r="B27" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C27" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>18</v>
       </c>
       <c r="B28" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C28" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>19</v>
       </c>
       <c r="B29" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C29" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>20</v>
       </c>
@@ -4582,27 +5135,27 @@
         <v>188</v>
       </c>
       <c r="C30" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C33" t="s">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
         <v>309</v>
-      </c>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C34" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C35" t="s">
-        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -4612,192 +5165,262 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A2:F40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F55"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="L45" sqref="L45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E2" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E4" s="9" t="s">
         <v>127</v>
       </c>
       <c r="F4" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E5" s="2" t="s">
         <v>129</v>
       </c>
       <c r="F5" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
         <v>131</v>
       </c>
       <c r="F6" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E7" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E8" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B12">
-        <v>3</v>
-      </c>
-      <c r="C12" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B17">
-        <v>2</v>
-      </c>
-      <c r="C17" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C18" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B33" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B36" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B37" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B38" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B39" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
         <v>518</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B40" t="s">
-        <v>519</v>
       </c>
     </row>
   </sheetData>
@@ -4807,33 +5430,33 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C89B49DB-61B9-44B6-8538-0E4D70E0CB6F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D2:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D2" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>162</v>
       </c>
@@ -4841,7 +5464,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="4" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>162</v>
       </c>
@@ -4849,30 +5472,30 @@
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>162</v>
       </c>
       <c r="E5" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="6" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="7" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="6" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="F6" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="7" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="F7" t="s">
+    <row r="8" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="8" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="F8" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="9" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
         <v>108</v>
       </c>
@@ -4884,20 +5507,20 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="B3:I34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:I36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="72" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="53.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>55</v>
       </c>
@@ -4905,7 +5528,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>61</v>
       </c>
@@ -4913,7 +5536,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>65</v>
       </c>
@@ -4921,7 +5544,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>69</v>
       </c>
@@ -4929,7 +5552,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>73</v>
       </c>
@@ -4937,7 +5560,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
         <v>76</v>
       </c>
@@ -4945,7 +5568,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
         <v>79</v>
       </c>
@@ -4953,7 +5576,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
         <v>82</v>
       </c>
@@ -4961,7 +5584,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
         <v>86</v>
       </c>
@@ -4969,7 +5592,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
         <v>90</v>
       </c>
@@ -4977,7 +5600,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
         <v>92</v>
       </c>
@@ -4985,7 +5608,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
         <v>95</v>
       </c>
@@ -4993,7 +5616,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>99</v>
       </c>
@@ -5001,7 +5624,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
         <v>102</v>
       </c>
@@ -5009,7 +5632,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
         <v>104</v>
       </c>
@@ -5017,7 +5640,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
         <v>106</v>
       </c>
@@ -5025,7 +5648,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
         <v>108</v>
       </c>
@@ -5033,7 +5656,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
         <v>110</v>
       </c>
@@ -5041,13 +5664,13 @@
         <v>111</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="4"/>
       <c r="C24" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
         <v>114</v>
       </c>
@@ -5055,13 +5678,13 @@
         <v>115</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="4" t="s">
         <v>116</v>
       </c>
       <c r="C26" s="4"/>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="s">
         <v>117</v>
       </c>
@@ -5069,13 +5692,13 @@
         <v>118</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C28" s="4"/>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" s="4" t="s">
         <v>120</v>
       </c>
@@ -5083,7 +5706,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" s="4" t="s">
         <v>122</v>
       </c>
@@ -5091,29 +5714,45 @@
         <v>123</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="C31" s="4"/>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B32" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="C31" s="4"/>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B32" s="4" t="s">
+      <c r="C32" s="4"/>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="C32" s="4"/>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B33" s="4" t="s">
+      <c r="C33" s="4"/>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="C33" s="4"/>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B34" s="4" t="s">
-        <v>357</v>
-      </c>
       <c r="C34" s="4"/>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>576</v>
+      </c>
+      <c r="C35" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>588</v>
+      </c>
+      <c r="C36" t="s">
+        <v>589</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5121,24 +5760,24 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="4:9" x14ac:dyDescent="0.25">
       <c r="E1" t="s">
+        <v>361</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="3" spans="4:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D3" s="1">
         <v>1</v>
       </c>
@@ -5146,82 +5785,82 @@
         <v>248</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="4" spans="4:9" x14ac:dyDescent="0.3">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="4" spans="4:9" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
         <v>162</v>
       </c>
       <c r="F4" t="s">
+        <v>357</v>
+      </c>
+      <c r="G4" t="s">
         <v>358</v>
       </c>
-      <c r="G4" t="s">
+    </row>
+    <row r="5" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="5" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>360</v>
       </c>
-      <c r="G5" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="6" spans="4:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F6" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="7" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="7" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="F7" t="s">
+    <row r="8" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="8" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="F8" t="s">
+    <row r="9" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="9" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="G9" t="s">
+    <row r="10" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="10" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="G10" t="s">
+    <row r="11" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="11" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="G11" t="s">
+    <row r="12" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="12" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="G12" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="14" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F14" t="s">
+        <v>364</v>
+      </c>
+      <c r="G14" t="s">
         <v>365</v>
       </c>
-      <c r="G14" t="s">
+    </row>
+    <row r="15" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="15" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="F15" t="s">
+      <c r="G15" s="8" t="s">
         <v>367</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>368</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G3" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="G3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -5229,58 +5868,58 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B10"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>311</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>312</v>
       </c>
     </row>
   </sheetData>

--- a/laravel-menu.xlsx
+++ b/laravel-menu.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="958" activeTab="17"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="958"/>
   </bookViews>
   <sheets>
     <sheet name="menu" sheetId="1" r:id="rId1"/>
@@ -2339,8 +2339,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D2:V248"/>
   <sheetViews>
-    <sheetView topLeftCell="A217" workbookViewId="0">
-      <selection activeCell="K243" sqref="K243"/>
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="S170" sqref="S170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4737,7 +4737,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D2:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
@@ -5511,7 +5511,7 @@
   <dimension ref="B3:I36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/laravel-menu.xlsx
+++ b/laravel-menu.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="604">
   <si>
     <t>tải xampp</t>
   </si>
@@ -1869,6 +1869,9 @@
   </si>
   <si>
     <t>…</t>
+  </si>
+  <si>
+    <t>width="247" height="43"</t>
   </si>
 </sst>
 </file>
@@ -2337,10 +2340,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D2:V248"/>
+  <dimension ref="D2:V255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="S170" sqref="S170"/>
+    <sheetView tabSelected="1" topLeftCell="A241" workbookViewId="0">
+      <selection activeCell="T257" sqref="T257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3662,44 +3665,49 @@
         <v>578</v>
       </c>
     </row>
-    <row r="241" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E241" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="242" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E242" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="243" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E243" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="244" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E244" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="245" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E245" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="246" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E246" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="247" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E247" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="248" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E248" t="s">
         <v>586</v>
+      </c>
+    </row>
+    <row r="255" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="O255" t="s">
+        <v>603</v>
       </c>
     </row>
   </sheetData>
@@ -5508,16 +5516,16 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:I36"/>
+  <dimension ref="B3:I48"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="72" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="53.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="80.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="59" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
@@ -5739,20 +5747,68 @@
       <c r="C34" s="4"/>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
+      <c r="B35" s="4" t="s">
         <v>576</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="4" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
+      <c r="B36" s="4" t="s">
         <v>588</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="4" t="s">
         <v>589</v>
       </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/laravel-menu.xlsx
+++ b/laravel-menu.xlsx
@@ -9,27 +9,28 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="958"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="958" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="menu" sheetId="1" r:id="rId1"/>
-    <sheet name="problem" sheetId="12" r:id="rId2"/>
-    <sheet name="folder" sheetId="4" r:id="rId3"/>
-    <sheet name="ORM" sheetId="16" r:id="rId4"/>
-    <sheet name="Security" sheetId="17" r:id="rId5"/>
-    <sheet name="error" sheetId="3" r:id="rId6"/>
-    <sheet name="script" sheetId="2" r:id="rId7"/>
-    <sheet name="software" sheetId="9" r:id="rId8"/>
-    <sheet name="lifecycle" sheetId="5" r:id="rId9"/>
-    <sheet name="environment" sheetId="6" r:id="rId10"/>
-    <sheet name="function" sheetId="7" r:id="rId11"/>
-    <sheet name="http" sheetId="10" r:id="rId12"/>
-    <sheet name="validation" sheetId="11" r:id="rId13"/>
-    <sheet name="logging" sheetId="14" r:id="rId14"/>
-    <sheet name="librabry" sheetId="13" r:id="rId15"/>
-    <sheet name="exception" sheetId="15" r:id="rId16"/>
-    <sheet name="packages" sheetId="8" r:id="rId17"/>
-    <sheet name="hiệu suất web" sheetId="18" r:id="rId18"/>
+    <sheet name="CSV" sheetId="19" r:id="rId2"/>
+    <sheet name="problem" sheetId="12" r:id="rId3"/>
+    <sheet name="folder" sheetId="4" r:id="rId4"/>
+    <sheet name="ORM" sheetId="16" r:id="rId5"/>
+    <sheet name="Security" sheetId="17" r:id="rId6"/>
+    <sheet name="error" sheetId="3" r:id="rId7"/>
+    <sheet name="script" sheetId="2" r:id="rId8"/>
+    <sheet name="software" sheetId="9" r:id="rId9"/>
+    <sheet name="lifecycle" sheetId="5" r:id="rId10"/>
+    <sheet name="environment" sheetId="6" r:id="rId11"/>
+    <sheet name="function" sheetId="7" r:id="rId12"/>
+    <sheet name="http" sheetId="10" r:id="rId13"/>
+    <sheet name="validation" sheetId="11" r:id="rId14"/>
+    <sheet name="logging" sheetId="14" r:id="rId15"/>
+    <sheet name="librabry" sheetId="13" r:id="rId16"/>
+    <sheet name="exception" sheetId="15" r:id="rId17"/>
+    <sheet name="packages" sheetId="8" r:id="rId18"/>
+    <sheet name="hiệu suất web" sheetId="18" r:id="rId19"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="609">
   <si>
     <t>tải xampp</t>
   </si>
@@ -1873,12 +1874,27 @@
   <si>
     <t>width="247" height="43"</t>
   </si>
+  <si>
+    <t xml:space="preserve">địa chỉ dự án nằm ở </t>
+  </si>
+  <si>
+    <t>C:\xampp\htdocs\laravel-crud-api</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSV (Comma-Separated Values) là một kiểu dữ liệu được sử dụng để lưu trữ và xử lý dữ liệu ở dạng bảng hoặc danh sách các giá trị phân tách bằng dấu phẩy (,). </t>
+  </si>
+  <si>
+    <t>Trong Laravel, bạn có thể sử dụng thư viện maatwebsite/excel để thực hiện các thao tác đọc và ghi dữ liệu từ và ra file CSV</t>
+  </si>
+  <si>
+    <t>CSV</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1920,6 +1936,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1957,7 +1989,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -1976,6 +2008,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2342,8 +2376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D2:V255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A241" workbookViewId="0">
-      <selection activeCell="T257" sqref="T257"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2381,6 +2415,14 @@
       </c>
       <c r="G6" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="4:11" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="E7" t="s">
+        <v>604</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>605</v>
       </c>
     </row>
     <row r="8" spans="4:11" x14ac:dyDescent="0.25">
@@ -3721,10 +3763,71 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3800,12 +3903,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4013,12 +4116,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:B90"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G83" sqref="G83"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4422,12 +4525,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4557,12 +4660,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4597,12 +4700,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4649,12 +4752,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4727,12 +4830,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="R31" sqref="R31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4741,7 +4844,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D2:E15"/>
   <sheetViews>
@@ -4823,10 +4926,40 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V15" sqref="V15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C2" s="12" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="4" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>607</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4852,11 +4985,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="S34" sqref="S34"/>
     </sheetView>
   </sheetViews>
@@ -5172,12 +5305,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5437,7 +5570,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -5449,7 +5582,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D2:F9"/>
   <sheetViews>
@@ -5514,12 +5647,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:I48"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5815,12 +5948,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5921,65 +6054,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B10"/>
-  <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>311</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/laravel-menu.xlsx
+++ b/laravel-menu.xlsx
@@ -9,28 +9,29 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="958" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="958" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="menu" sheetId="1" r:id="rId1"/>
-    <sheet name="CSV" sheetId="19" r:id="rId2"/>
-    <sheet name="problem" sheetId="12" r:id="rId3"/>
-    <sheet name="folder" sheetId="4" r:id="rId4"/>
-    <sheet name="ORM" sheetId="16" r:id="rId5"/>
-    <sheet name="Security" sheetId="17" r:id="rId6"/>
-    <sheet name="error" sheetId="3" r:id="rId7"/>
-    <sheet name="script" sheetId="2" r:id="rId8"/>
-    <sheet name="software" sheetId="9" r:id="rId9"/>
-    <sheet name="lifecycle" sheetId="5" r:id="rId10"/>
-    <sheet name="environment" sheetId="6" r:id="rId11"/>
-    <sheet name="function" sheetId="7" r:id="rId12"/>
-    <sheet name="http" sheetId="10" r:id="rId13"/>
-    <sheet name="validation" sheetId="11" r:id="rId14"/>
-    <sheet name="logging" sheetId="14" r:id="rId15"/>
-    <sheet name="librabry" sheetId="13" r:id="rId16"/>
-    <sheet name="exception" sheetId="15" r:id="rId17"/>
-    <sheet name="packages" sheetId="8" r:id="rId18"/>
-    <sheet name="hiệu suất web" sheetId="18" r:id="rId19"/>
+    <sheet name="total" sheetId="20" r:id="rId2"/>
+    <sheet name="CSV" sheetId="19" r:id="rId3"/>
+    <sheet name="problem" sheetId="12" r:id="rId4"/>
+    <sheet name="folder" sheetId="4" r:id="rId5"/>
+    <sheet name="ORM" sheetId="16" r:id="rId6"/>
+    <sheet name="Security" sheetId="17" r:id="rId7"/>
+    <sheet name="error" sheetId="3" r:id="rId8"/>
+    <sheet name="script" sheetId="2" r:id="rId9"/>
+    <sheet name="software" sheetId="9" r:id="rId10"/>
+    <sheet name="lifecycle" sheetId="5" r:id="rId11"/>
+    <sheet name="environment" sheetId="6" r:id="rId12"/>
+    <sheet name="function" sheetId="7" r:id="rId13"/>
+    <sheet name="http" sheetId="10" r:id="rId14"/>
+    <sheet name="validation" sheetId="11" r:id="rId15"/>
+    <sheet name="logging" sheetId="14" r:id="rId16"/>
+    <sheet name="librabry" sheetId="13" r:id="rId17"/>
+    <sheet name="exception" sheetId="15" r:id="rId18"/>
+    <sheet name="packages" sheetId="8" r:id="rId19"/>
+    <sheet name="hiệu suất web" sheetId="18" r:id="rId20"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="580">
   <si>
     <t>tải xampp</t>
   </si>
@@ -651,180 +652,90 @@
     <t>mục này để fake dữ liệu Api</t>
   </si>
   <si>
-    <t>đầu tiên là thêm bài viết mới</t>
-  </si>
-  <si>
-    <t>tiêu đề</t>
-  </si>
-  <si>
     <t>tạo form mặc định</t>
   </si>
   <si>
-    <t>nội dung ngắn</t>
-  </si>
-  <si>
-    <t>nội dung chính</t>
-  </si>
-  <si>
     <t>php artisan ui vue --auth</t>
   </si>
   <si>
-    <t>danh mục</t>
-  </si>
-  <si>
     <t>tạo starter kits</t>
   </si>
   <si>
-    <t>tác giả</t>
-  </si>
-  <si>
     <t>composer require laravel/breeze --dev</t>
   </si>
   <si>
-    <t>ngày đăng</t>
-  </si>
-  <si>
     <t>php artisan breeze:install</t>
   </si>
   <si>
-    <t>hình ảnh</t>
-  </si>
-  <si>
-    <t>ngày cập nhật</t>
-  </si>
-  <si>
     <t>OneUi</t>
   </si>
   <si>
     <t>có win và macoss</t>
   </si>
   <si>
-    <t>tên</t>
-  </si>
-  <si>
     <t>có 3 bản</t>
   </si>
   <si>
-    <t>slug</t>
-  </si>
-  <si>
     <t>HTML</t>
   </si>
   <si>
-    <t>trạng thái</t>
-  </si>
-  <si>
     <t>PHP</t>
   </si>
   <si>
-    <t>danh mục cha</t>
-  </si>
-  <si>
     <t>Starter kit</t>
   </si>
   <si>
     <t>có thể lấy 100% của nó chạy luôn, hoặc copy những thứ cần qua dự án của mình</t>
   </si>
   <si>
-    <t>ngày tạo</t>
-  </si>
-  <si>
     <t>phải cài node: node install và npm run build, để tạo ra thử mục public/build</t>
   </si>
   <si>
-    <t>chức năng</t>
-  </si>
-  <si>
     <t>thêm config ở trong vite.config.js</t>
   </si>
   <si>
-    <t>hiển thị</t>
-  </si>
-  <si>
     <t>chạy cùng với laravel starter kit</t>
   </si>
   <si>
-    <t>thêm</t>
-  </si>
-  <si>
-    <t>sửa</t>
-  </si>
-  <si>
     <t>cách tạo bảng</t>
   </si>
   <si>
-    <t>xóa</t>
-  </si>
-  <si>
     <t>php artisan make:migration create_posts</t>
   </si>
   <si>
-    <t>cập nhật</t>
-  </si>
-  <si>
     <t>schema để tạo cấu trúc cột</t>
   </si>
   <si>
-    <t>tìm kiếm: theo tên, theo danh mục</t>
-  </si>
-  <si>
     <t>php artisan migrate đẩy lên phpadmin</t>
   </si>
   <si>
-    <t>render UI</t>
-  </si>
-  <si>
     <t>php artisan migrate:refresh xóa dữ liệu trong phpadmin</t>
   </si>
   <si>
     <t>lưu ý chạy bảng có khóa chính trước, rồi mới chạy bảng có khóa phụ sau</t>
   </si>
   <si>
-    <t>tạo mirgration, bảng trong phpadmin</t>
-  </si>
-  <si>
     <t>lưu</t>
   </si>
   <si>
     <t>khi tải ảnh lên lưu vào db, chỉ lưu link ảnh, ko lưu trực tiếp ảnh</t>
   </si>
   <si>
-    <t>trong model sẽ tạo mối quan hệ</t>
-  </si>
-  <si>
     <t>lưu hình ảnh vào folder storage</t>
   </si>
   <si>
-    <t>tạo crud trong đây</t>
-  </si>
-  <si>
     <t>khi lấy ra thì phải từ link truy xuất ra hình ảnh để hiển thị lên UI</t>
   </si>
   <si>
-    <t>tạo routes</t>
-  </si>
-  <si>
-    <t>tạo views</t>
-  </si>
-  <si>
     <t>ngrok</t>
   </si>
   <si>
-    <t>xử lí upload ảnh</t>
-  </si>
-  <si>
     <t>tạo tài khoản, window</t>
   </si>
   <si>
-    <t>xử lí logic crud</t>
-  </si>
-  <si>
     <t>tải ngrok về máy https://ngrok.com/download</t>
   </si>
   <si>
-    <t>login authen</t>
-  </si>
-  <si>
     <t>hiển thị lên online ngrok http http://localhost:8000</t>
   </si>
   <si>
@@ -1888,13 +1799,16 @@
   </si>
   <si>
     <t>CSV</t>
+  </si>
+  <si>
+    <t>ngrok http http://localhost:8000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1932,14 +1846,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFC00000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1989,7 +1895,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -2005,11 +1911,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2374,10 +2288,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D2:V255"/>
+  <dimension ref="D2:R255"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+    <sheetView topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="E167" sqref="E167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2390,7 +2304,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>348</v>
+        <v>318</v>
       </c>
     </row>
     <row r="3" spans="4:11" x14ac:dyDescent="0.25">
@@ -2401,12 +2315,12 @@
         <v>1</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>346</v>
+        <v>316</v>
       </c>
     </row>
     <row r="4" spans="4:11" x14ac:dyDescent="0.25">
       <c r="K4" s="1" t="s">
-        <v>347</v>
+        <v>317</v>
       </c>
     </row>
     <row r="6" spans="4:11" x14ac:dyDescent="0.25">
@@ -2419,10 +2333,10 @@
     </row>
     <row r="7" spans="4:11" ht="26.25" x14ac:dyDescent="0.4">
       <c r="E7" t="s">
-        <v>604</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>605</v>
+        <v>574</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="8" spans="4:11" x14ac:dyDescent="0.25">
@@ -2789,22 +2703,22 @@
       </c>
     </row>
     <row r="89" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="E89" s="11" t="s">
+      <c r="E89" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="F89" s="11"/>
-      <c r="G89" s="11"/>
-      <c r="H89" s="11"/>
-      <c r="I89" s="11"/>
-      <c r="J89" s="11"/>
-      <c r="K89" s="11"/>
-      <c r="L89" s="11"/>
-      <c r="M89" s="11"/>
-      <c r="N89" s="11"/>
-      <c r="O89" s="11"/>
-      <c r="P89" s="11"/>
-      <c r="Q89" s="11"/>
-      <c r="R89" s="11"/>
+      <c r="F89" s="15"/>
+      <c r="G89" s="15"/>
+      <c r="H89" s="15"/>
+      <c r="I89" s="15"/>
+      <c r="J89" s="15"/>
+      <c r="K89" s="15"/>
+      <c r="L89" s="15"/>
+      <c r="M89" s="15"/>
+      <c r="N89" s="15"/>
+      <c r="O89" s="15"/>
+      <c r="P89" s="15"/>
+      <c r="Q89" s="15"/>
+      <c r="R89" s="15"/>
     </row>
     <row r="90" spans="4:18" x14ac:dyDescent="0.25">
       <c r="E90" t="s">
@@ -3052,7 +2966,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="129" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="129" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D129" t="s">
         <v>186</v>
       </c>
@@ -3060,7 +2974,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="130" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="130" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D130" t="s">
         <v>188</v>
       </c>
@@ -3068,7 +2982,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="131" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="131" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D131" t="s">
         <v>190</v>
       </c>
@@ -3076,7 +2990,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="132" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="132" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D132" t="s">
         <v>192</v>
       </c>
@@ -3084,672 +2998,515 @@
         <v>193</v>
       </c>
     </row>
-    <row r="133" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="133" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D133" t="s">
         <v>194</v>
       </c>
       <c r="H133" t="s">
         <v>195</v>
       </c>
-      <c r="S133">
-        <v>1</v>
-      </c>
-      <c r="T133" t="s">
+    </row>
+    <row r="135" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D135" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="134" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="U134" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="135" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D135" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="U135" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="136" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="136" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D136">
         <v>1</v>
       </c>
       <c r="E136" t="s">
         <v>120</v>
       </c>
-      <c r="U136" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="137" spans="4:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="137" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D137">
         <v>2</v>
       </c>
       <c r="E137" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="138" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D138" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="139" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E139" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="140" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E140" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="142" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D142" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="U137" t="s">
+    </row>
+    <row r="143" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E143" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="138" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D138" s="1" t="s">
+    <row r="144" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E144" t="s">
         <v>203</v>
       </c>
-      <c r="U138" t="s">
+    </row>
+    <row r="145" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="F145" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="139" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="E139" t="s">
+    <row r="146" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="F146" t="s">
         <v>205</v>
       </c>
-      <c r="U139" t="s">
+    </row>
+    <row r="147" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="F147" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="140" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="E140" t="s">
+      <c r="H147" t="s">
         <v>207</v>
       </c>
-      <c r="U140" t="s">
+    </row>
+    <row r="148" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E148" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="141" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="U141" t="s">
+    <row r="149" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E149" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="142" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D142" s="1" t="s">
+    <row r="150" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E150" t="s">
         <v>210</v>
       </c>
-      <c r="S142">
-        <v>2</v>
-      </c>
-      <c r="T142" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="143" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="E143" t="s">
+    </row>
+    <row r="152" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D152" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="U143" t="s">
+    </row>
+    <row r="153" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E153" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="144" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="E144" t="s">
+    <row r="154" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E154" t="s">
         <v>213</v>
       </c>
-      <c r="U144" t="s">
+    </row>
+    <row r="155" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E155" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="145" spans="4:22" x14ac:dyDescent="0.25">
-      <c r="F145" t="s">
+    <row r="156" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E156" t="s">
         <v>215</v>
       </c>
-      <c r="U145" t="s">
+    </row>
+    <row r="157" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E157" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="146" spans="4:22" x14ac:dyDescent="0.25">
-      <c r="F146" t="s">
+    <row r="159" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D159" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="U146" t="s">
+      <c r="E159" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="147" spans="4:22" x14ac:dyDescent="0.25">
-      <c r="F147" t="s">
+    <row r="160" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E160" t="s">
         <v>219</v>
       </c>
-      <c r="H147" t="s">
+    </row>
+    <row r="161" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E161" t="s">
         <v>220</v>
       </c>
-      <c r="U147" t="s">
+    </row>
+    <row r="163" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D163" s="1" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="148" spans="4:22" x14ac:dyDescent="0.25">
-      <c r="E148" t="s">
+      <c r="E163" s="10" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="164" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E164" t="s">
         <v>222</v>
       </c>
-      <c r="S148">
-        <v>3</v>
-      </c>
-      <c r="T148" t="s">
+    </row>
+    <row r="165" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E165" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="149" spans="4:22" x14ac:dyDescent="0.25">
-      <c r="E149" t="s">
+    <row r="166" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E166" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="167" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E167" t="s">
         <v>224</v>
       </c>
-      <c r="U149" t="s">
+    </row>
+    <row r="168" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E168" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="150" spans="4:22" x14ac:dyDescent="0.25">
-      <c r="E150" t="s">
+    <row r="169" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E169" t="s">
         <v>226</v>
       </c>
-      <c r="U150" t="s">
+    </row>
+    <row r="170" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F170" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="151" spans="4:22" x14ac:dyDescent="0.25">
-      <c r="U151" t="s">
+    <row r="171" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F171" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="152" spans="4:22" x14ac:dyDescent="0.25">
-      <c r="D152" s="1" t="s">
+    <row r="172" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F172" t="s">
         <v>229</v>
       </c>
-      <c r="U152" t="s">
+    </row>
+    <row r="173" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F173" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="153" spans="4:22" x14ac:dyDescent="0.25">
-      <c r="E153" t="s">
+    <row r="174" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E174" s="10" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="175" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E175" s="10" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="176" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D176" s="1" t="s">
         <v>231</v>
-      </c>
-      <c r="U153" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="154" spans="4:22" x14ac:dyDescent="0.25">
-      <c r="E154" t="s">
-        <v>233</v>
-      </c>
-      <c r="U154" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="155" spans="4:22" x14ac:dyDescent="0.25">
-      <c r="E155" t="s">
-        <v>235</v>
-      </c>
-      <c r="S155">
-        <v>4</v>
-      </c>
-      <c r="T155" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="156" spans="4:22" x14ac:dyDescent="0.25">
-      <c r="E156" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="157" spans="4:22" x14ac:dyDescent="0.25">
-      <c r="E157" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="158" spans="4:22" x14ac:dyDescent="0.25">
-      <c r="R158" t="s">
-        <v>1</v>
-      </c>
-      <c r="S158" t="s">
-        <v>162</v>
-      </c>
-      <c r="T158" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="159" spans="4:22" x14ac:dyDescent="0.25">
-      <c r="D159" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="E159" t="s">
-        <v>241</v>
-      </c>
-      <c r="R159" t="s">
-        <v>1</v>
-      </c>
-      <c r="S159" t="s">
-        <v>162</v>
-      </c>
-      <c r="T159" t="s">
-        <v>87</v>
-      </c>
-      <c r="V159" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="160" spans="4:22" x14ac:dyDescent="0.25">
-      <c r="E160" t="s">
-        <v>243</v>
-      </c>
-      <c r="R160" t="s">
-        <v>1</v>
-      </c>
-      <c r="S160" t="s">
-        <v>162</v>
-      </c>
-      <c r="T160" t="s">
-        <v>74</v>
-      </c>
-      <c r="V160" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="161" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="E161" t="s">
-        <v>245</v>
-      </c>
-      <c r="R161" t="s">
-        <v>1</v>
-      </c>
-      <c r="S161" t="s">
-        <v>162</v>
-      </c>
-      <c r="T161" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="162" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="S162" t="s">
-        <v>162</v>
-      </c>
-      <c r="T162" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="163" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D163" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="E163" s="10" t="s">
-        <v>521</v>
-      </c>
-      <c r="S163" t="s">
-        <v>162</v>
-      </c>
-      <c r="T163" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="164" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="E164" t="s">
-        <v>250</v>
-      </c>
-      <c r="S164" t="s">
-        <v>162</v>
-      </c>
-      <c r="T164" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="165" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="E165" t="s">
-        <v>252</v>
-      </c>
-      <c r="S165" t="s">
-        <v>162</v>
-      </c>
-      <c r="T165" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="166" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="E166" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="167" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="E167" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="168" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="E168" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="169" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="E169" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="170" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="F170" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="171" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="F171" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="172" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="F172" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="173" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="F173" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="174" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="E174" s="10" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="175" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="E175" s="10" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="176" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D176" s="1" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="177" spans="4:10" x14ac:dyDescent="0.25">
       <c r="E177" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
     </row>
     <row r="178" spans="4:10" x14ac:dyDescent="0.25">
       <c r="E178" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
     </row>
     <row r="181" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D181" s="1" t="s">
-        <v>487</v>
+        <v>457</v>
       </c>
       <c r="J181" t="s">
-        <v>488</v>
+        <v>458</v>
       </c>
     </row>
     <row r="182" spans="4:10" x14ac:dyDescent="0.25">
       <c r="E182" t="s">
-        <v>477</v>
+        <v>447</v>
       </c>
     </row>
     <row r="184" spans="4:10" x14ac:dyDescent="0.25">
       <c r="E184" t="s">
-        <v>478</v>
+        <v>448</v>
       </c>
     </row>
     <row r="185" spans="4:10" x14ac:dyDescent="0.25">
       <c r="E185" t="s">
-        <v>479</v>
+        <v>449</v>
       </c>
     </row>
     <row r="186" spans="4:10" x14ac:dyDescent="0.25">
       <c r="E186" t="s">
-        <v>480</v>
+        <v>450</v>
       </c>
     </row>
     <row r="187" spans="4:10" x14ac:dyDescent="0.25">
       <c r="E187" t="s">
-        <v>481</v>
+        <v>451</v>
       </c>
     </row>
     <row r="188" spans="4:10" x14ac:dyDescent="0.25">
       <c r="E188" t="s">
-        <v>482</v>
+        <v>452</v>
       </c>
     </row>
     <row r="189" spans="4:10" x14ac:dyDescent="0.25">
       <c r="E189" t="s">
-        <v>483</v>
+        <v>453</v>
       </c>
     </row>
     <row r="190" spans="4:10" x14ac:dyDescent="0.25">
       <c r="E190" t="s">
-        <v>484</v>
+        <v>454</v>
       </c>
     </row>
     <row r="191" spans="4:10" x14ac:dyDescent="0.25">
       <c r="E191" t="s">
-        <v>485</v>
+        <v>455</v>
       </c>
     </row>
     <row r="192" spans="4:10" x14ac:dyDescent="0.25">
       <c r="E192" t="s">
-        <v>486</v>
+        <v>456</v>
       </c>
     </row>
     <row r="194" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D194" s="1" t="s">
-        <v>561</v>
+        <v>531</v>
       </c>
     </row>
     <row r="195" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E195" t="s">
-        <v>542</v>
+        <v>512</v>
       </c>
     </row>
     <row r="196" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E196" t="s">
-        <v>543</v>
+        <v>513</v>
       </c>
     </row>
     <row r="198" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E198" t="s">
-        <v>544</v>
+        <v>514</v>
       </c>
     </row>
     <row r="199" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E199" t="s">
-        <v>545</v>
+        <v>515</v>
       </c>
     </row>
     <row r="200" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E200" t="s">
-        <v>546</v>
+        <v>516</v>
       </c>
     </row>
     <row r="201" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E201" t="s">
-        <v>547</v>
+        <v>517</v>
       </c>
     </row>
     <row r="202" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E202" t="s">
-        <v>548</v>
+        <v>518</v>
       </c>
     </row>
     <row r="204" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E204" t="s">
-        <v>549</v>
+        <v>519</v>
       </c>
     </row>
     <row r="205" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E205" t="s">
-        <v>550</v>
+        <v>520</v>
       </c>
     </row>
     <row r="206" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E206" t="s">
-        <v>551</v>
+        <v>521</v>
       </c>
     </row>
     <row r="207" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E207" t="s">
-        <v>552</v>
+        <v>522</v>
       </c>
     </row>
     <row r="208" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E208" t="s">
-        <v>553</v>
+        <v>523</v>
       </c>
     </row>
     <row r="209" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E209" t="s">
-        <v>554</v>
+        <v>524</v>
       </c>
     </row>
     <row r="210" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E210" t="s">
-        <v>555</v>
+        <v>525</v>
       </c>
     </row>
     <row r="211" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E211" t="s">
-        <v>556</v>
+        <v>526</v>
       </c>
     </row>
     <row r="212" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E212" t="s">
-        <v>557</v>
+        <v>527</v>
       </c>
     </row>
     <row r="214" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E214" t="s">
-        <v>558</v>
+        <v>528</v>
       </c>
     </row>
     <row r="215" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E215" t="s">
-        <v>506</v>
+        <v>476</v>
       </c>
     </row>
     <row r="216" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E216" t="s">
-        <v>559</v>
+        <v>529</v>
       </c>
     </row>
     <row r="217" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E217" t="s">
-        <v>560</v>
+        <v>530</v>
       </c>
     </row>
     <row r="219" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D219" s="1" t="s">
-        <v>562</v>
+        <v>532</v>
       </c>
     </row>
     <row r="220" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E220" t="s">
-        <v>563</v>
+        <v>533</v>
       </c>
     </row>
     <row r="221" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E221" t="s">
-        <v>564</v>
+        <v>534</v>
       </c>
     </row>
     <row r="222" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E222" t="s">
-        <v>565</v>
+        <v>535</v>
       </c>
     </row>
     <row r="224" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E224" t="s">
-        <v>566</v>
+        <v>536</v>
       </c>
     </row>
     <row r="225" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E225" t="s">
-        <v>567</v>
+        <v>537</v>
       </c>
     </row>
     <row r="227" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E227" t="s">
-        <v>568</v>
+        <v>538</v>
       </c>
     </row>
     <row r="228" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E228" t="s">
-        <v>569</v>
+        <v>539</v>
       </c>
     </row>
     <row r="230" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E230" t="s">
-        <v>570</v>
+        <v>540</v>
       </c>
     </row>
     <row r="231" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E231" t="s">
-        <v>571</v>
+        <v>541</v>
       </c>
     </row>
     <row r="233" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E233" t="s">
-        <v>572</v>
+        <v>542</v>
       </c>
     </row>
     <row r="234" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E234" t="s">
-        <v>573</v>
+        <v>543</v>
       </c>
     </row>
     <row r="236" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E236" t="s">
-        <v>574</v>
+        <v>544</v>
       </c>
     </row>
     <row r="237" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E237" t="s">
-        <v>575</v>
+        <v>545</v>
       </c>
     </row>
     <row r="239" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D239" s="1" t="s">
-        <v>587</v>
+        <v>557</v>
       </c>
     </row>
     <row r="240" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E240" t="s">
-        <v>578</v>
+        <v>548</v>
       </c>
     </row>
     <row r="241" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E241" t="s">
-        <v>579</v>
+        <v>549</v>
       </c>
     </row>
     <row r="242" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E242" t="s">
-        <v>580</v>
+        <v>550</v>
       </c>
     </row>
     <row r="243" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E243" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
     </row>
     <row r="244" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E244" t="s">
-        <v>582</v>
+        <v>552</v>
       </c>
     </row>
     <row r="245" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E245" t="s">
-        <v>583</v>
+        <v>553</v>
       </c>
     </row>
     <row r="246" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E246" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="247" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E247" t="s">
-        <v>585</v>
+        <v>555</v>
       </c>
     </row>
     <row r="248" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E248" t="s">
-        <v>586</v>
+        <v>556</v>
       </c>
     </row>
     <row r="255" spans="5:15" x14ac:dyDescent="0.25">
       <c r="O255" t="s">
-        <v>603</v>
+        <v>573</v>
       </c>
     </row>
   </sheetData>
@@ -3763,6 +3520,114 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D1:I15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>331</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="3" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="4" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>162</v>
+      </c>
+      <c r="F4" t="s">
+        <v>327</v>
+      </c>
+      <c r="G4" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="5" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>329</v>
+      </c>
+      <c r="G5" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="6" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="7" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="8" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="9" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="10" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="11" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="12" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="14" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>334</v>
+      </c>
+      <c r="G14" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="15" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>336</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>337</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G3" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3773,47 +3638,47 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>310</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>312</v>
+        <v>282</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>313</v>
+        <v>283</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>314</v>
+        <v>284</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>315</v>
+        <v>285</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>316</v>
+        <v>286</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>317</v>
+        <v>287</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>318</v>
+        <v>288</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>311</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -3822,7 +3687,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:D13"/>
   <sheetViews>
@@ -3837,7 +3702,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>319</v>
+        <v>289</v>
       </c>
     </row>
     <row r="4" spans="3:4" x14ac:dyDescent="0.25">
@@ -3845,7 +3710,7 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>320</v>
+        <v>290</v>
       </c>
     </row>
     <row r="5" spans="3:4" x14ac:dyDescent="0.25">
@@ -3853,7 +3718,7 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>321</v>
+        <v>291</v>
       </c>
     </row>
     <row r="6" spans="3:4" x14ac:dyDescent="0.25">
@@ -3861,12 +3726,12 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>322</v>
+        <v>292</v>
       </c>
     </row>
     <row r="9" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>323</v>
+        <v>293</v>
       </c>
     </row>
     <row r="10" spans="3:4" x14ac:dyDescent="0.25">
@@ -3874,7 +3739,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>324</v>
+        <v>294</v>
       </c>
     </row>
     <row r="11" spans="3:4" x14ac:dyDescent="0.25">
@@ -3882,7 +3747,7 @@
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>325</v>
+        <v>295</v>
       </c>
     </row>
     <row r="12" spans="3:4" x14ac:dyDescent="0.25">
@@ -3890,7 +3755,7 @@
         <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>326</v>
+        <v>296</v>
       </c>
     </row>
     <row r="13" spans="3:4" x14ac:dyDescent="0.25">
@@ -3903,7 +3768,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E18"/>
   <sheetViews>
@@ -3921,16 +3786,16 @@
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" s="6" t="s">
-        <v>328</v>
+        <v>298</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>327</v>
+        <v>297</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>329</v>
+        <v>299</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>330</v>
+        <v>300</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
@@ -3941,7 +3806,7 @@
         <v>51</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>331</v>
+        <v>301</v>
       </c>
       <c r="E3" s="4"/>
     </row>
@@ -3950,10 +3815,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>332</v>
+        <v>302</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>333</v>
+        <v>303</v>
       </c>
       <c r="E4" s="4"/>
     </row>
@@ -3965,7 +3830,7 @@
         <v>94</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>334</v>
+        <v>304</v>
       </c>
       <c r="E5" s="4"/>
     </row>
@@ -3974,10 +3839,10 @@
         <v>4</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>335</v>
+        <v>305</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>336</v>
+        <v>306</v>
       </c>
       <c r="E6" s="4"/>
     </row>
@@ -3986,13 +3851,13 @@
         <v>5</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>337</v>
+        <v>307</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>338</v>
+        <v>308</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>339</v>
+        <v>309</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
@@ -4000,13 +3865,13 @@
         <v>6</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>340</v>
+        <v>310</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>341</v>
+        <v>311</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>342</v>
+        <v>312</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
@@ -4014,10 +3879,10 @@
         <v>7</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>343</v>
+        <v>313</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>344</v>
+        <v>314</v>
       </c>
       <c r="E9" s="4"/>
     </row>
@@ -4026,7 +3891,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>345</v>
+        <v>315</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -4063,7 +3928,7 @@
         <v>142</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>522</v>
+        <v>492</v>
       </c>
       <c r="E13" s="4"/>
     </row>
@@ -4075,7 +3940,7 @@
         <v>143</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>523</v>
+        <v>493</v>
       </c>
       <c r="E14" s="4"/>
     </row>
@@ -4116,11 +3981,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:B90"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
@@ -4128,395 +3993,395 @@
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>269</v>
+        <v>239</v>
       </c>
       <c r="B3" t="s">
-        <v>370</v>
+        <v>340</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>371</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>368</v>
+        <v>338</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>369</v>
+        <v>339</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>372</v>
+        <v>342</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>373</v>
+        <v>343</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>374</v>
+        <v>344</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>375</v>
+        <v>345</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>376</v>
+        <v>346</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>377</v>
+        <v>347</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>378</v>
+        <v>348</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>379</v>
+        <v>349</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>380</v>
+        <v>350</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>381</v>
+        <v>351</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>382</v>
+        <v>352</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>383</v>
+        <v>353</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>384</v>
+        <v>354</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>385</v>
+        <v>355</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>386</v>
+        <v>356</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>387</v>
+        <v>357</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>388</v>
+        <v>358</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>389</v>
+        <v>359</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>390</v>
+        <v>360</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>391</v>
+        <v>361</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>392</v>
+        <v>362</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>393</v>
+        <v>363</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>394</v>
+        <v>364</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>395</v>
+        <v>365</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>396</v>
+        <v>366</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>397</v>
+        <v>367</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>398</v>
+        <v>368</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>387</v>
+        <v>357</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>388</v>
+        <v>358</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>389</v>
+        <v>359</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>399</v>
+        <v>369</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>400</v>
+        <v>370</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>401</v>
+        <v>371</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>402</v>
+        <v>372</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>403</v>
+        <v>373</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>404</v>
+        <v>374</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>405</v>
+        <v>375</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>406</v>
+        <v>376</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>407</v>
+        <v>377</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>408</v>
+        <v>378</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>417</v>
+        <v>387</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>409</v>
+        <v>379</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>410</v>
+        <v>380</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>411</v>
+        <v>381</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>412</v>
+        <v>382</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>413</v>
+        <v>383</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>414</v>
+        <v>384</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>415</v>
+        <v>385</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>416</v>
+        <v>386</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>430</v>
+        <v>400</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>418</v>
+        <v>388</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>419</v>
+        <v>389</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>420</v>
+        <v>390</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>421</v>
+        <v>391</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>422</v>
+        <v>392</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>423</v>
+        <v>393</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>424</v>
+        <v>394</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>425</v>
+        <v>395</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>426</v>
+        <v>396</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>427</v>
+        <v>397</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>428</v>
+        <v>398</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>429</v>
+        <v>399</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>437</v>
+        <v>407</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>431</v>
+        <v>401</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>432</v>
+        <v>402</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>433</v>
+        <v>403</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>434</v>
+        <v>404</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>435</v>
+        <v>405</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>436</v>
+        <v>406</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>442</v>
+        <v>412</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>438</v>
+        <v>408</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>439</v>
+        <v>409</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>440</v>
+        <v>410</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>441</v>
+        <v>411</v>
       </c>
     </row>
   </sheetData>
@@ -4525,7 +4390,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K21"/>
   <sheetViews>
@@ -4540,7 +4405,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>443</v>
+        <v>413</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
@@ -4548,7 +4413,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>444</v>
+        <v>414</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
@@ -4556,7 +4421,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>445</v>
+        <v>415</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
@@ -4564,7 +4429,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>448</v>
+        <v>418</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
@@ -4572,10 +4437,10 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>449</v>
+        <v>419</v>
       </c>
       <c r="F6" t="s">
-        <v>451</v>
+        <v>421</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
@@ -4583,7 +4448,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>450</v>
+        <v>420</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
@@ -4591,7 +4456,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>452</v>
+        <v>422</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
@@ -4599,7 +4464,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>474</v>
+        <v>444</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
@@ -4607,7 +4472,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>475</v>
+        <v>445</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
@@ -4615,12 +4480,12 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>476</v>
+        <v>446</v>
       </c>
     </row>
     <row r="17" spans="10:11" x14ac:dyDescent="0.25">
       <c r="K17" t="s">
-        <v>455</v>
+        <v>425</v>
       </c>
     </row>
     <row r="18" spans="10:11" x14ac:dyDescent="0.25">
@@ -4628,7 +4493,7 @@
         <v>1</v>
       </c>
       <c r="K18" t="s">
-        <v>456</v>
+        <v>426</v>
       </c>
     </row>
     <row r="19" spans="10:11" x14ac:dyDescent="0.25">
@@ -4636,7 +4501,7 @@
         <v>2</v>
       </c>
       <c r="K19" t="s">
-        <v>457</v>
+        <v>427</v>
       </c>
     </row>
     <row r="20" spans="10:11" x14ac:dyDescent="0.25">
@@ -4644,7 +4509,7 @@
         <v>3</v>
       </c>
       <c r="K20" t="s">
-        <v>458</v>
+        <v>428</v>
       </c>
     </row>
     <row r="21" spans="10:11" x14ac:dyDescent="0.25">
@@ -4652,7 +4517,7 @@
         <v>4</v>
       </c>
       <c r="K21" t="s">
-        <v>459</v>
+        <v>429</v>
       </c>
     </row>
   </sheetData>
@@ -4660,39 +4525,39 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>460</v>
+        <v>430</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>461</v>
+        <v>431</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>462</v>
+        <v>432</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>463</v>
+        <v>433</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>464</v>
+        <v>434</v>
       </c>
     </row>
   </sheetData>
@@ -4700,7 +4565,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:D5"/>
   <sheetViews>
@@ -4719,10 +4584,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>453</v>
+        <v>423</v>
       </c>
       <c r="D3" t="s">
-        <v>454</v>
+        <v>424</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
@@ -4730,10 +4595,10 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>465</v>
+        <v>435</v>
       </c>
       <c r="D4" t="s">
-        <v>541</v>
+        <v>511</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
@@ -4741,88 +4606,10 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>539</v>
+        <v>509</v>
       </c>
       <c r="D5" t="s">
-        <v>540</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:E11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="3" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D3" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>162</v>
-      </c>
-      <c r="D4" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>162</v>
-      </c>
-      <c r="D5" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E6" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E7" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>162</v>
-      </c>
-      <c r="D8" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>162</v>
-      </c>
-      <c r="D9" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>162</v>
-      </c>
-      <c r="D10" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>162</v>
-      </c>
-      <c r="D11" t="s">
-        <v>473</v>
+        <v>510</v>
       </c>
     </row>
   </sheetData>
@@ -4832,10 +4619,88 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D4" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D5" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>162</v>
+      </c>
+      <c r="D8" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>162</v>
+      </c>
+      <c r="D9" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>162</v>
+      </c>
+      <c r="D10" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>162</v>
+      </c>
+      <c r="D11" t="s">
+        <v>443</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R31" sqref="R31"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4844,109 +4709,111 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E3:H5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="5:8" s="12" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="E3" s="14" t="s">
+        <v>574</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="5" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E5" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D2:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
-        <v>590</v>
+        <v>560</v>
       </c>
     </row>
     <row r="3" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
-        <v>591</v>
+        <v>561</v>
       </c>
     </row>
     <row r="4" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
-        <v>592</v>
+        <v>562</v>
       </c>
     </row>
     <row r="5" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
-        <v>593</v>
+        <v>563</v>
       </c>
     </row>
     <row r="6" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
-        <v>594</v>
+        <v>564</v>
       </c>
     </row>
     <row r="8" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
-        <v>595</v>
+        <v>565</v>
       </c>
     </row>
     <row r="9" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
-        <v>596</v>
+        <v>566</v>
       </c>
     </row>
     <row r="10" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
-        <v>597</v>
+        <v>567</v>
       </c>
     </row>
     <row r="11" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
-        <v>598</v>
+        <v>568</v>
       </c>
     </row>
     <row r="12" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
-        <v>599</v>
+        <v>569</v>
       </c>
     </row>
     <row r="13" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
-        <v>600</v>
+        <v>570</v>
       </c>
     </row>
     <row r="14" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
-        <v>601</v>
+        <v>571</v>
       </c>
     </row>
     <row r="15" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
-        <v>602</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:D5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V15" sqref="V15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="2" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C2" s="12" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="4" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D4" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D5" t="s">
-        <v>607</v>
+        <v>572</v>
       </c>
     </row>
   </sheetData>
@@ -4956,10 +4823,40 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="4" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>577</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4969,7 +4866,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>446</v>
+        <v>416</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
@@ -4977,7 +4874,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>447</v>
+        <v>417</v>
       </c>
     </row>
   </sheetData>
@@ -4985,12 +4882,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C35"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="S34" sqref="S34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5000,7 +4897,7 @@
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>264</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -5008,10 +4905,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>265</v>
+        <v>235</v>
       </c>
       <c r="C4" t="s">
-        <v>266</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -5019,7 +4916,7 @@
         <v>162</v>
       </c>
       <c r="C5" t="s">
-        <v>267</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -5027,7 +4924,7 @@
         <v>162</v>
       </c>
       <c r="C6" t="s">
-        <v>268</v>
+        <v>238</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -5035,7 +4932,7 @@
         <v>162</v>
       </c>
       <c r="C7" t="s">
-        <v>269</v>
+        <v>239</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -5043,7 +4940,7 @@
         <v>162</v>
       </c>
       <c r="C8" t="s">
-        <v>270</v>
+        <v>240</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -5051,7 +4948,7 @@
         <v>162</v>
       </c>
       <c r="C9" t="s">
-        <v>271</v>
+        <v>241</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -5059,10 +4956,10 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>272</v>
+        <v>242</v>
       </c>
       <c r="C10" t="s">
-        <v>290</v>
+        <v>260</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -5070,7 +4967,7 @@
         <v>162</v>
       </c>
       <c r="C11" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -5078,7 +4975,7 @@
         <v>162</v>
       </c>
       <c r="C12" t="s">
-        <v>274</v>
+        <v>244</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -5086,10 +4983,10 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>275</v>
+        <v>245</v>
       </c>
       <c r="C13" t="s">
-        <v>291</v>
+        <v>261</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -5097,10 +4994,10 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>276</v>
+        <v>246</v>
       </c>
       <c r="C14" t="s">
-        <v>292</v>
+        <v>262</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -5108,10 +5005,10 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>277</v>
+        <v>247</v>
       </c>
       <c r="C15" t="s">
-        <v>293</v>
+        <v>263</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -5119,10 +5016,10 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>278</v>
+        <v>248</v>
       </c>
       <c r="C16" t="s">
-        <v>294</v>
+        <v>264</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -5130,10 +5027,10 @@
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="C17" t="s">
-        <v>295</v>
+        <v>265</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -5141,10 +5038,10 @@
         <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="C18" t="s">
-        <v>296</v>
+        <v>266</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -5152,10 +5049,10 @@
         <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>281</v>
+        <v>251</v>
       </c>
       <c r="C19" t="s">
-        <v>306</v>
+        <v>276</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -5163,10 +5060,10 @@
         <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>282</v>
+        <v>252</v>
       </c>
       <c r="C20" t="s">
-        <v>297</v>
+        <v>267</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -5174,10 +5071,10 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>283</v>
+        <v>253</v>
       </c>
       <c r="C21" t="s">
-        <v>298</v>
+        <v>268</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -5185,10 +5082,10 @@
         <v>12</v>
       </c>
       <c r="B22" t="s">
-        <v>284</v>
+        <v>254</v>
       </c>
       <c r="C22" t="s">
-        <v>299</v>
+        <v>269</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -5196,10 +5093,10 @@
         <v>13</v>
       </c>
       <c r="B23" t="s">
-        <v>285</v>
+        <v>255</v>
       </c>
       <c r="C23" t="s">
-        <v>299</v>
+        <v>269</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -5210,7 +5107,7 @@
         <v>157</v>
       </c>
       <c r="C24" t="s">
-        <v>300</v>
+        <v>270</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -5221,7 +5118,7 @@
         <v>190</v>
       </c>
       <c r="C25" t="s">
-        <v>301</v>
+        <v>271</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -5229,10 +5126,10 @@
         <v>16</v>
       </c>
       <c r="B26" t="s">
-        <v>286</v>
+        <v>256</v>
       </c>
       <c r="C26" t="s">
-        <v>301</v>
+        <v>271</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -5240,10 +5137,10 @@
         <v>17</v>
       </c>
       <c r="B27" t="s">
-        <v>287</v>
+        <v>257</v>
       </c>
       <c r="C27" t="s">
-        <v>302</v>
+        <v>272</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -5251,10 +5148,10 @@
         <v>18</v>
       </c>
       <c r="B28" t="s">
-        <v>288</v>
+        <v>258</v>
       </c>
       <c r="C28" t="s">
-        <v>303</v>
+        <v>273</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -5262,10 +5159,10 @@
         <v>19</v>
       </c>
       <c r="B29" t="s">
-        <v>289</v>
+        <v>259</v>
       </c>
       <c r="C29" t="s">
-        <v>304</v>
+        <v>274</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -5276,292 +5173,27 @@
         <v>188</v>
       </c>
       <c r="C30" t="s">
-        <v>305</v>
+        <v>275</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>307</v>
+        <v>277</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>308</v>
+        <v>278</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
-        <v>272</v>
+        <v>242</v>
       </c>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
-        <v>309</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F55"/>
-  <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E2" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E4" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="F4" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E5" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F5" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E6" t="s">
-        <v>131</v>
-      </c>
-      <c r="F6" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E7" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E8" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B26">
-        <v>2</v>
-      </c>
-      <c r="C26" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B27">
-        <v>3</v>
-      </c>
-      <c r="C27" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B28">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="C31" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B32">
-        <v>2</v>
-      </c>
-      <c r="C32" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C33" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
-        <v>518</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -5571,6 +5203,271 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F55"/>
+  <sheetViews>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="I61" sqref="I61"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E4" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="F4" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E5" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F5" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F6" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>488</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -5582,12 +5479,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D2:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5618,22 +5515,22 @@
         <v>162</v>
       </c>
       <c r="E5" t="s">
-        <v>350</v>
+        <v>320</v>
       </c>
     </row>
     <row r="6" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F6" t="s">
-        <v>349</v>
+        <v>319</v>
       </c>
     </row>
     <row r="7" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F7" t="s">
-        <v>351</v>
+        <v>321</v>
       </c>
     </row>
     <row r="8" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
-        <v>352</v>
+        <v>322</v>
       </c>
     </row>
     <row r="9" spans="4:6" x14ac:dyDescent="0.25">
@@ -5647,7 +5544,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:I48"/>
   <sheetViews>
@@ -5857,42 +5754,42 @@
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" s="4" t="s">
-        <v>353</v>
+        <v>323</v>
       </c>
       <c r="C31" s="4"/>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" s="4" t="s">
-        <v>354</v>
+        <v>324</v>
       </c>
       <c r="C32" s="4"/>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="4" t="s">
-        <v>355</v>
+        <v>325</v>
       </c>
       <c r="C33" s="4"/>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="4" t="s">
-        <v>356</v>
+        <v>326</v>
       </c>
       <c r="C34" s="4"/>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="4" t="s">
-        <v>576</v>
+        <v>546</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>577</v>
+        <v>547</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" s="4" t="s">
-        <v>588</v>
+        <v>558</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>589</v>
+        <v>559</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
@@ -5946,112 +5843,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D1:I15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="E1" t="s">
-        <v>361</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="3" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="4" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="E4" t="s">
-        <v>162</v>
-      </c>
-      <c r="F4" t="s">
-        <v>357</v>
-      </c>
-      <c r="G4" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="5" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="F5" t="s">
-        <v>359</v>
-      </c>
-      <c r="G5" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="6" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="F6" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="7" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="F7" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="8" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="F8" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="9" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="G9" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="10" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="G10" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="11" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="G11" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="12" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="G12" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="14" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="F14" t="s">
-        <v>364</v>
-      </c>
-      <c r="G14" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="15" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="F15" t="s">
-        <v>366</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>367</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="G3" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-</worksheet>
 </file>
--- a/laravel-menu.xlsx
+++ b/laravel-menu.xlsx
@@ -9,29 +9,30 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="958" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="958"/>
   </bookViews>
   <sheets>
     <sheet name="menu" sheetId="1" r:id="rId1"/>
-    <sheet name="total" sheetId="20" r:id="rId2"/>
-    <sheet name="CSV" sheetId="19" r:id="rId3"/>
-    <sheet name="problem" sheetId="12" r:id="rId4"/>
-    <sheet name="folder" sheetId="4" r:id="rId5"/>
-    <sheet name="ORM" sheetId="16" r:id="rId6"/>
-    <sheet name="Security" sheetId="17" r:id="rId7"/>
-    <sheet name="error" sheetId="3" r:id="rId8"/>
-    <sheet name="script" sheetId="2" r:id="rId9"/>
-    <sheet name="software" sheetId="9" r:id="rId10"/>
-    <sheet name="lifecycle" sheetId="5" r:id="rId11"/>
-    <sheet name="environment" sheetId="6" r:id="rId12"/>
-    <sheet name="function" sheetId="7" r:id="rId13"/>
-    <sheet name="http" sheetId="10" r:id="rId14"/>
-    <sheet name="validation" sheetId="11" r:id="rId15"/>
-    <sheet name="logging" sheetId="14" r:id="rId16"/>
-    <sheet name="librabry" sheetId="13" r:id="rId17"/>
-    <sheet name="exception" sheetId="15" r:id="rId18"/>
-    <sheet name="packages" sheetId="8" r:id="rId19"/>
-    <sheet name="hiệu suất web" sheetId="18" r:id="rId20"/>
+    <sheet name="server" sheetId="21" r:id="rId2"/>
+    <sheet name="total" sheetId="20" r:id="rId3"/>
+    <sheet name="CSV" sheetId="19" r:id="rId4"/>
+    <sheet name="problem" sheetId="12" r:id="rId5"/>
+    <sheet name="folder" sheetId="4" r:id="rId6"/>
+    <sheet name="ORM" sheetId="16" r:id="rId7"/>
+    <sheet name="Security" sheetId="17" r:id="rId8"/>
+    <sheet name="error" sheetId="3" r:id="rId9"/>
+    <sheet name="script" sheetId="2" r:id="rId10"/>
+    <sheet name="software" sheetId="9" r:id="rId11"/>
+    <sheet name="lifecycle" sheetId="5" r:id="rId12"/>
+    <sheet name="environment" sheetId="6" r:id="rId13"/>
+    <sheet name="function" sheetId="7" r:id="rId14"/>
+    <sheet name="http" sheetId="10" r:id="rId15"/>
+    <sheet name="validation" sheetId="11" r:id="rId16"/>
+    <sheet name="logging" sheetId="14" r:id="rId17"/>
+    <sheet name="librabry" sheetId="13" r:id="rId18"/>
+    <sheet name="exception" sheetId="15" r:id="rId19"/>
+    <sheet name="packages" sheetId="8" r:id="rId20"/>
+    <sheet name="hiệu suất web" sheetId="18" r:id="rId21"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="591">
   <si>
     <t>tải xampp</t>
   </si>
@@ -1783,9 +1784,6 @@
     <t>…</t>
   </si>
   <si>
-    <t>width="247" height="43"</t>
-  </si>
-  <si>
     <t xml:space="preserve">địa chỉ dự án nằm ở </t>
   </si>
   <si>
@@ -1802,6 +1800,42 @@
   </si>
   <si>
     <t>ngrok http http://localhost:8000</t>
+  </si>
+  <si>
+    <t>tool/option/show hide files</t>
+  </si>
+  <si>
+    <t>để mở ẩn những cái file ko phải dạng thường</t>
+  </si>
+  <si>
+    <t>php bản chất nó có nhiều extendtion</t>
+  </si>
+  <si>
+    <t>mặc định mở sẵn 1 số extension</t>
+  </si>
+  <si>
+    <t>mặc định có 1 số cái đóng, cần dùng thì mở</t>
+  </si>
+  <si>
+    <t>search phpinfo() và https://www.php.net/manual/en/function.phpinfo.php</t>
+  </si>
+  <si>
+    <t>cài đặt site laravel lên sever thì</t>
+  </si>
+  <si>
+    <t>check version php</t>
+  </si>
+  <si>
+    <t>check version composer</t>
+  </si>
+  <si>
+    <t>ko tải vender folder lên</t>
+  </si>
+  <si>
+    <t>ko tải folder node modules lên</t>
+  </si>
+  <si>
+    <t>để file ngoài thư mục chính luôn</t>
   </si>
 </sst>
 </file>
@@ -1895,7 +1929,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -1920,6 +1954,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2288,9 +2325,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D2:R255"/>
+  <dimension ref="D2:R248"/>
   <sheetViews>
-    <sheetView topLeftCell="A154" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
       <selection activeCell="E167" sqref="E167"/>
     </sheetView>
   </sheetViews>
@@ -2333,10 +2370,10 @@
     </row>
     <row r="7" spans="4:11" ht="26.25" x14ac:dyDescent="0.4">
       <c r="E7" t="s">
+        <v>573</v>
+      </c>
+      <c r="H7" s="11" t="s">
         <v>574</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="8" spans="4:11" x14ac:dyDescent="0.25">
@@ -2703,22 +2740,22 @@
       </c>
     </row>
     <row r="89" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="E89" s="15" t="s">
+      <c r="E89" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="F89" s="15"/>
-      <c r="G89" s="15"/>
-      <c r="H89" s="15"/>
-      <c r="I89" s="15"/>
-      <c r="J89" s="15"/>
-      <c r="K89" s="15"/>
-      <c r="L89" s="15"/>
-      <c r="M89" s="15"/>
-      <c r="N89" s="15"/>
-      <c r="O89" s="15"/>
-      <c r="P89" s="15"/>
-      <c r="Q89" s="15"/>
-      <c r="R89" s="15"/>
+      <c r="F89" s="16"/>
+      <c r="G89" s="16"/>
+      <c r="H89" s="16"/>
+      <c r="I89" s="16"/>
+      <c r="J89" s="16"/>
+      <c r="K89" s="16"/>
+      <c r="L89" s="16"/>
+      <c r="M89" s="16"/>
+      <c r="N89" s="16"/>
+      <c r="O89" s="16"/>
+      <c r="P89" s="16"/>
+      <c r="Q89" s="16"/>
+      <c r="R89" s="16"/>
     </row>
     <row r="90" spans="4:18" x14ac:dyDescent="0.25">
       <c r="E90" t="s">
@@ -3464,49 +3501,44 @@
         <v>548</v>
       </c>
     </row>
-    <row r="241" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="241" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E241" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="242" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="242" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E242" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="243" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="243" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E243" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="244" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="244" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E244" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="245" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="245" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E245" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="246" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="246" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E246" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="247" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="247" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E247" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="248" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="248" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E248" t="s">
         <v>556</v>
-      </c>
-    </row>
-    <row r="255" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="O255" t="s">
-        <v>573</v>
       </c>
     </row>
   </sheetData>
@@ -3519,6 +3551,311 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:I48"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="80.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="59" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="4"/>
+      <c r="C24" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C26" s="4"/>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C28" s="4"/>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B31" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="C31" s="4"/>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B32" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="C32" s="4"/>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="C33" s="4"/>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="C34" s="4"/>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D1:I15"/>
   <sheetViews>
@@ -3626,7 +3963,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B10"/>
   <sheetViews>
@@ -3687,7 +4024,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:D13"/>
   <sheetViews>
@@ -3768,7 +4105,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E18"/>
   <sheetViews>
@@ -3981,7 +4318,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:B90"/>
   <sheetViews>
@@ -4390,7 +4727,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K21"/>
   <sheetViews>
@@ -4525,7 +4862,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:B7"/>
   <sheetViews>
@@ -4565,7 +4902,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:D5"/>
   <sheetViews>
@@ -4617,7 +4954,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:E11"/>
   <sheetViews>
@@ -4695,7 +5032,102 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C3" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="D3" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C4" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="D4" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C5" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="D5" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C7" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="D7" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C8" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="D8" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C9" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="D9" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="D10" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C11" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="D11" t="s">
+        <v>590</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -4709,39 +5141,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E3:H5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="3" spans="5:8" s="12" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="E3" s="14" t="s">
-        <v>574</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="5" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E5" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="F5" t="s">
-        <v>579</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D2:E15"/>
   <sheetViews>
@@ -4823,6 +5223,38 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E3:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="5:8" s="12" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="E3" s="14" t="s">
+        <v>573</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="5" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E5" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F5" t="s">
+        <v>578</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4833,17 +5265,17 @@
   <sheetData>
     <row r="2" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="4" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="5" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
   </sheetData>
@@ -4851,7 +5283,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C3"/>
   <sheetViews>
@@ -4882,12 +5314,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5202,12 +5634,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F55"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="I61" sqref="I61"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I53" sqref="I53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5467,11 +5899,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -5479,7 +5913,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D2:F9"/>
   <sheetViews>
@@ -5542,305 +5976,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:I48"/>
-  <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="80.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="59" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>55</v>
-      </c>
-      <c r="I3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="4"/>
-      <c r="C24" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C26" s="4"/>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C28" s="4"/>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B29" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B30" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B31" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="C31" s="4"/>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B32" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="C32" s="4"/>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="C33" s="4"/>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="C34" s="4"/>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35" s="4" t="s">
-        <v>546</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B36" s="4" t="s">
-        <v>558</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-    </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-    </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-    </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-    </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/laravel-menu.xlsx
+++ b/laravel-menu.xlsx
@@ -9,30 +9,28 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="958"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="958" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="menu" sheetId="1" r:id="rId1"/>
     <sheet name="server" sheetId="21" r:id="rId2"/>
     <sheet name="total" sheetId="20" r:id="rId3"/>
     <sheet name="CSV" sheetId="19" r:id="rId4"/>
-    <sheet name="problem" sheetId="12" r:id="rId5"/>
-    <sheet name="folder" sheetId="4" r:id="rId6"/>
-    <sheet name="ORM" sheetId="16" r:id="rId7"/>
-    <sheet name="Security" sheetId="17" r:id="rId8"/>
-    <sheet name="error" sheetId="3" r:id="rId9"/>
-    <sheet name="script" sheetId="2" r:id="rId10"/>
-    <sheet name="software" sheetId="9" r:id="rId11"/>
-    <sheet name="lifecycle" sheetId="5" r:id="rId12"/>
-    <sheet name="environment" sheetId="6" r:id="rId13"/>
-    <sheet name="function" sheetId="7" r:id="rId14"/>
-    <sheet name="http" sheetId="10" r:id="rId15"/>
-    <sheet name="validation" sheetId="11" r:id="rId16"/>
-    <sheet name="logging" sheetId="14" r:id="rId17"/>
-    <sheet name="librabry" sheetId="13" r:id="rId18"/>
-    <sheet name="exception" sheetId="15" r:id="rId19"/>
-    <sheet name="packages" sheetId="8" r:id="rId20"/>
-    <sheet name="hiệu suất web" sheetId="18" r:id="rId21"/>
+    <sheet name="folder" sheetId="4" r:id="rId5"/>
+    <sheet name="ORM" sheetId="16" r:id="rId6"/>
+    <sheet name="error" sheetId="3" r:id="rId7"/>
+    <sheet name="script" sheetId="2" r:id="rId8"/>
+    <sheet name="software" sheetId="9" r:id="rId9"/>
+    <sheet name="lifecycle" sheetId="5" r:id="rId10"/>
+    <sheet name="environment" sheetId="6" r:id="rId11"/>
+    <sheet name="function" sheetId="7" r:id="rId12"/>
+    <sheet name="http" sheetId="10" r:id="rId13"/>
+    <sheet name="validation" sheetId="11" r:id="rId14"/>
+    <sheet name="logging" sheetId="14" r:id="rId15"/>
+    <sheet name="librabry" sheetId="13" r:id="rId16"/>
+    <sheet name="exception" sheetId="15" r:id="rId17"/>
+    <sheet name="packages" sheetId="8" r:id="rId18"/>
+    <sheet name="hiệu suất web" sheetId="18" r:id="rId19"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -44,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="609">
   <si>
     <t>tải xampp</t>
   </si>
@@ -1313,12 +1311,6 @@
     <t>gói của nó</t>
   </si>
   <si>
-    <t>sao bản của mình thấy thiếu các thư mục trong app, so với tài liệu</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
     <t>cẩn thận key có phân biệt in hoa in thường(ví dụ email và Email)</t>
   </si>
   <si>
@@ -1836,6 +1828,68 @@
   </si>
   <si>
     <t>để file ngoài thư mục chính luôn</t>
+  </si>
+  <si>
+    <t>Để tạo một ứng dụng đơn giản trong Shopify sử dụng ReactJS và Laravel, bạn có thể làm theo các bước sau:</t>
+  </si>
+  <si>
+    <t>1. Cài đặt Laravel và gói osiset/laravel-shopify sử dụng Composer.</t>
+  </si>
+  <si>
+    <t>2. Thiết lập các biến môi trường, URL ứng dụng, cơ sở dữ liệu và khóa API Shopify trong các tệp .env và config.</t>
+  </si>
+  <si>
+    <t>3. Thiết lập middleware và tên đường dẫn cho trang chủ trong tệp web.php.</t>
+  </si>
+  <si>
+    <t>4. Triển khai interface IShopModel và sử dụng trait ShopModel trong model User.</t>
+  </si>
+  <si>
+    <t>5. Mở rộng layout mặc định và tạo một view chào mừng hiển thị tên cửa hàng và sản phẩm sử dụng API Shopify.</t>
+  </si>
+  <si>
+    <t>6. Thêm CSS sử dụng Uptown CSS và tạo một bảng để hiển thị hình ảnh sản phẩm, tiêu đề và hành động.</t>
+  </si>
+  <si>
+    <t>7. Chạy các migration và phục vụ ứng dụng sử dụng php artisan serve.</t>
+  </si>
+  <si>
+    <t>8. Cài đặt ứng dụng vào một cửa hàng phát triển sử dụng Shopify Partners và kiểm tra ứng dụng.</t>
+  </si>
+  <si>
+    <t>tạo bản laravel-shopify trên laravel 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">composer create-project --prefer-dist laravel/laravel="^9.0" my-projects
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">php artisan vendor:publish --tag=shopify-config
+</t>
+  </si>
+  <si>
+    <t>cấu hình gói shopify.php trong config</t>
+  </si>
+  <si>
+    <t>tạo cơ sở dữ liệu trong phpadmin\</t>
+  </si>
+  <si>
+    <t>cập nhật cấu hình trong .env</t>
+  </si>
+  <si>
+    <t>thêm middleware vào app/Http/Kernel.php</t>
+  </si>
+  <si>
+    <t>'auth.shopify' =&gt; \Osiset\ShopifyApp\Http\Middleware\AuthShopify::class,</t>
+  </si>
+  <si>
+    <t>'auth.webhook' =&gt; \Osiset\ShopifyApp\Http\Middleware\AuthWebhook::class,</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>Tạo route</t>
   </si>
 </sst>
 </file>
@@ -1929,7 +1983,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -1956,6 +2010,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2325,10 +2383,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D2:R248"/>
+  <dimension ref="C2:R278"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="E167" sqref="E167"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F273" sqref="F273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2370,10 +2428,10 @@
     </row>
     <row r="7" spans="4:11" ht="26.25" x14ac:dyDescent="0.4">
       <c r="E7" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="8" spans="4:11" x14ac:dyDescent="0.25">
@@ -2740,22 +2798,22 @@
       </c>
     </row>
     <row r="89" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="E89" s="16" t="s">
+      <c r="E89" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="F89" s="16"/>
-      <c r="G89" s="16"/>
-      <c r="H89" s="16"/>
-      <c r="I89" s="16"/>
-      <c r="J89" s="16"/>
-      <c r="K89" s="16"/>
-      <c r="L89" s="16"/>
-      <c r="M89" s="16"/>
-      <c r="N89" s="16"/>
-      <c r="O89" s="16"/>
-      <c r="P89" s="16"/>
-      <c r="Q89" s="16"/>
-      <c r="R89" s="16"/>
+      <c r="F89" s="18"/>
+      <c r="G89" s="18"/>
+      <c r="H89" s="18"/>
+      <c r="I89" s="18"/>
+      <c r="J89" s="18"/>
+      <c r="K89" s="18"/>
+      <c r="L89" s="18"/>
+      <c r="M89" s="18"/>
+      <c r="N89" s="18"/>
+      <c r="O89" s="18"/>
+      <c r="P89" s="18"/>
+      <c r="Q89" s="18"/>
+      <c r="R89" s="18"/>
     </row>
     <row r="90" spans="4:18" x14ac:dyDescent="0.25">
       <c r="E90" t="s">
@@ -3180,7 +3238,7 @@
         <v>221</v>
       </c>
       <c r="E163" s="10" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="164" spans="4:6" x14ac:dyDescent="0.25">
@@ -3195,7 +3253,7 @@
     </row>
     <row r="166" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E166" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="167" spans="4:6" x14ac:dyDescent="0.25">
@@ -3235,12 +3293,12 @@
     </row>
     <row r="174" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E174" s="10" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="175" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E175" s="10" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="176" spans="4:6" x14ac:dyDescent="0.25">
@@ -3260,285 +3318,423 @@
     </row>
     <row r="181" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D181" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="J181" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="182" spans="4:10" x14ac:dyDescent="0.25">
       <c r="E182" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="184" spans="4:10" x14ac:dyDescent="0.25">
       <c r="E184" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="185" spans="4:10" x14ac:dyDescent="0.25">
       <c r="E185" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="186" spans="4:10" x14ac:dyDescent="0.25">
       <c r="E186" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="187" spans="4:10" x14ac:dyDescent="0.25">
       <c r="E187" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="188" spans="4:10" x14ac:dyDescent="0.25">
       <c r="E188" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="189" spans="4:10" x14ac:dyDescent="0.25">
       <c r="E189" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="190" spans="4:10" x14ac:dyDescent="0.25">
       <c r="E190" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="191" spans="4:10" x14ac:dyDescent="0.25">
       <c r="E191" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="192" spans="4:10" x14ac:dyDescent="0.25">
       <c r="E192" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="194" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D194" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="195" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E195" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="196" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E196" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="198" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E198" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="199" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E199" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="200" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E200" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="201" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E201" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="202" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E202" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="204" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E204" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="205" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E205" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="206" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E206" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="207" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E207" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="208" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E208" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="209" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E209" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="210" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E210" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="211" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E211" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="212" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E212" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="214" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E214" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="215" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E215" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="216" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E216" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="217" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E217" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="219" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D219" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="220" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E220" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="221" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E221" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="222" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E222" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="224" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E224" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="225" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E225" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="227" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E227" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="228" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E228" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="230" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E230" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="231" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E231" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="233" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E233" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="234" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E234" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="236" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E236" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="237" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E237" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="239" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D239" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="240" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E240" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="241" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E241" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="242" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E242" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="241" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E241" t="s">
+    <row r="243" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E243" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="242" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E242" t="s">
+    <row r="244" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E244" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="243" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E243" t="s">
+    <row r="245" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E245" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="244" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E244" t="s">
+    <row r="246" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E246" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="245" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E245" t="s">
+    <row r="247" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E247" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="246" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E246" t="s">
+    <row r="248" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E248" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="247" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E247" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="248" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E248" t="s">
-        <v>556</v>
+    <row r="255" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D255" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="258" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D258" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="259" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C259" t="s">
+        <v>1</v>
+      </c>
+      <c r="D259" t="s">
+        <v>162</v>
+      </c>
+      <c r="E259" s="16" t="s">
+        <v>599</v>
+      </c>
+      <c r="O259" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="260" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D260" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="261" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C261" t="s">
+        <v>1</v>
+      </c>
+      <c r="D261" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="E261" s="16" t="s">
+        <v>600</v>
+      </c>
+      <c r="O261" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="262" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C262" t="s">
+        <v>1</v>
+      </c>
+      <c r="D262" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="E262" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="O262" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="263" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C263" t="s">
+        <v>1</v>
+      </c>
+      <c r="D263" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="E263" s="16" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="264" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C264" t="s">
+        <v>1</v>
+      </c>
+      <c r="D264" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="E264" s="16" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="265" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D265" s="15"/>
+      <c r="E265" s="17" t="s">
+        <v>607</v>
+      </c>
+      <c r="F265" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="266" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D266" s="15"/>
+      <c r="E266" s="17" t="s">
+        <v>607</v>
+      </c>
+      <c r="F266" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="267" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C267" t="s">
+        <v>1</v>
+      </c>
+      <c r="D267" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="E267" s="17" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="268" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D268" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="270" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D270" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="272" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D272" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="274" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D274" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="276" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D276" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="278" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D278" t="s">
+        <v>597</v>
       </c>
     </row>
   </sheetData>
@@ -3551,419 +3747,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:I48"/>
-  <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="80.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="59" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>55</v>
-      </c>
-      <c r="I3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="4"/>
-      <c r="C24" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C26" s="4"/>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C28" s="4"/>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B29" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B30" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B31" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="C31" s="4"/>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B32" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="C32" s="4"/>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="C33" s="4"/>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="C34" s="4"/>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35" s="4" t="s">
-        <v>546</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B36" s="4" t="s">
-        <v>558</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B37" s="4" t="s">
-        <v>579</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-    </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-    </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-    </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-    </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D1:I15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="E1" t="s">
-        <v>331</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="3" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="4" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="E4" t="s">
-        <v>162</v>
-      </c>
-      <c r="F4" t="s">
-        <v>327</v>
-      </c>
-      <c r="G4" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="5" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="F5" t="s">
-        <v>329</v>
-      </c>
-      <c r="G5" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="6" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="F6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="7" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="F7" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="8" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="F8" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="9" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="G9" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="10" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="G10" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="11" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="G11" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="12" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="G12" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="14" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="F14" t="s">
-        <v>334</v>
-      </c>
-      <c r="G14" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="15" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="F15" t="s">
-        <v>336</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>337</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="G3" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B10"/>
   <sheetViews>
@@ -4024,7 +3807,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:D13"/>
   <sheetViews>
@@ -4105,12 +3888,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4265,7 +4048,7 @@
         <v>142</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E13" s="4"/>
     </row>
@@ -4277,7 +4060,7 @@
         <v>143</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E14" s="4"/>
     </row>
@@ -4318,11 +4101,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:B90"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
@@ -4727,12 +4510,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+      <selection activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4766,7 +4549,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
@@ -4774,10 +4557,10 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
+        <v>417</v>
+      </c>
+      <c r="F6" t="s">
         <v>419</v>
-      </c>
-      <c r="F6" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
@@ -4785,7 +4568,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
@@ -4793,7 +4576,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
@@ -4801,7 +4584,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
@@ -4809,7 +4592,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
@@ -4817,12 +4600,12 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="17" spans="10:11" x14ac:dyDescent="0.25">
       <c r="K17" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="18" spans="10:11" x14ac:dyDescent="0.25">
@@ -4830,7 +4613,7 @@
         <v>1</v>
       </c>
       <c r="K18" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="19" spans="10:11" x14ac:dyDescent="0.25">
@@ -4838,7 +4621,7 @@
         <v>2</v>
       </c>
       <c r="K19" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="20" spans="10:11" x14ac:dyDescent="0.25">
@@ -4846,7 +4629,7 @@
         <v>3</v>
       </c>
       <c r="K20" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="21" spans="10:11" x14ac:dyDescent="0.25">
@@ -4854,7 +4637,7 @@
         <v>4</v>
       </c>
       <c r="K21" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
   </sheetData>
@@ -4862,39 +4645,39 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
   </sheetData>
@@ -4902,12 +4685,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4921,10 +4704,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D3" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
@@ -4932,10 +4715,10 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D4" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
@@ -4943,10 +4726,10 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D5" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
   </sheetData>
@@ -4954,7 +4737,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:E11"/>
   <sheetViews>
@@ -4966,7 +4749,7 @@
   <sheetData>
     <row r="3" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="4" spans="3:5" x14ac:dyDescent="0.25">
@@ -4974,7 +4757,7 @@
         <v>162</v>
       </c>
       <c r="D4" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="5" spans="3:5" x14ac:dyDescent="0.25">
@@ -4982,17 +4765,17 @@
         <v>162</v>
       </c>
       <c r="D5" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="6" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="7" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="8" spans="3:5" x14ac:dyDescent="0.25">
@@ -5000,7 +4783,7 @@
         <v>162</v>
       </c>
       <c r="D8" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="9" spans="3:5" x14ac:dyDescent="0.25">
@@ -5008,7 +4791,7 @@
         <v>162</v>
       </c>
       <c r="D9" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="10" spans="3:5" x14ac:dyDescent="0.25">
@@ -5016,7 +4799,7 @@
         <v>162</v>
       </c>
       <c r="D10" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="11" spans="3:5" x14ac:dyDescent="0.25">
@@ -5024,7 +4807,101 @@
         <v>162</v>
       </c>
       <c r="D11" t="s">
-        <v>443</v>
+        <v>441</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D2:E15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="3" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="4" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="5" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="6" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="8" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="9" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="10" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="11" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="12" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="13" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="14" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="15" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>570</v>
       </c>
     </row>
   </sheetData>
@@ -5047,7 +4924,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
@@ -5055,7 +4932,7 @@
         <v>162</v>
       </c>
       <c r="D3" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
@@ -5063,7 +4940,7 @@
         <v>162</v>
       </c>
       <c r="D4" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
@@ -5071,7 +4948,7 @@
         <v>162</v>
       </c>
       <c r="D5" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
@@ -5079,7 +4956,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
@@ -5087,7 +4964,7 @@
         <v>162</v>
       </c>
       <c r="D7" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
@@ -5095,7 +4972,7 @@
         <v>162</v>
       </c>
       <c r="D8" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
@@ -5103,7 +4980,7 @@
         <v>162</v>
       </c>
       <c r="D9" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
@@ -5111,7 +4988,7 @@
         <v>162</v>
       </c>
       <c r="D10" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
@@ -5119,101 +4996,7 @@
         <v>162</v>
       </c>
       <c r="D11" t="s">
-        <v>590</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D2:E15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="2" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D2" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="3" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D3" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="4" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E4" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="5" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E5" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="6" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E6" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="8" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D8" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="9" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E9" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="10" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E10" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="11" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E11" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="12" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E12" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="13" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E13" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="14" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E14" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="15" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E15" t="s">
-        <v>572</v>
+        <v>588</v>
       </c>
     </row>
   </sheetData>
@@ -5233,10 +5016,10 @@
   <sheetData>
     <row r="3" spans="5:8" s="12" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="E3" s="14" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="5" spans="5:8" x14ac:dyDescent="0.25">
@@ -5244,7 +5027,7 @@
         <v>221</v>
       </c>
       <c r="F5" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
   </sheetData>
@@ -5265,17 +5048,17 @@
   <sheetData>
     <row r="2" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="4" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="5" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
   </sheetData>
@@ -5285,41 +5068,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>417</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5634,19 +5386,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I53" sqref="I53"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -5654,7 +5406,7 @@
         <v>127</v>
       </c>
       <c r="F4" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -5662,7 +5414,7 @@
         <v>129</v>
       </c>
       <c r="F5" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -5670,92 +5422,92 @@
         <v>131</v>
       </c>
       <c r="F6" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -5763,7 +5515,7 @@
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -5771,7 +5523,7 @@
         <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -5779,7 +5531,7 @@
         <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -5789,7 +5541,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -5797,7 +5549,7 @@
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -5805,92 +5557,92 @@
         <v>2</v>
       </c>
       <c r="C32" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
   </sheetData>
@@ -5899,26 +5651,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D2:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5976,4 +5714,417 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:I48"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="80.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="59" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="4"/>
+      <c r="C24" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C26" s="4"/>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C28" s="4"/>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B31" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="C31" s="4"/>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B32" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="C32" s="4"/>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="C33" s="4"/>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="C34" s="4"/>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D1:I15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>331</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="3" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="4" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>162</v>
+      </c>
+      <c r="F4" t="s">
+        <v>327</v>
+      </c>
+      <c r="G4" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="5" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>329</v>
+      </c>
+      <c r="G5" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="6" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="7" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="8" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="9" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="10" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="11" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="12" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="14" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>334</v>
+      </c>
+      <c r="G14" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="15" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>336</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>337</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G3" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
 </file>
--- a/laravel-menu.xlsx
+++ b/laravel-menu.xlsx
@@ -29,8 +29,8 @@
     <sheet name="logging" sheetId="14" r:id="rId15"/>
     <sheet name="librabry" sheetId="13" r:id="rId16"/>
     <sheet name="exception" sheetId="15" r:id="rId17"/>
-    <sheet name="packages" sheetId="8" r:id="rId18"/>
-    <sheet name="hiệu suất web" sheetId="18" r:id="rId19"/>
+    <sheet name="hiệu suất web" sheetId="18" r:id="rId18"/>
+    <sheet name="laravel fast" sheetId="22" r:id="rId19"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -3812,7 +3812,7 @@
   <dimension ref="C3:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3893,7 +3893,7 @@
   <dimension ref="B2:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4105,8 +4105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:B90"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4515,7 +4515,7 @@
   <dimension ref="B2:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O31" sqref="O31"/>
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4650,7 +4650,7 @@
   <dimension ref="B3:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4690,7 +4690,7 @@
   <dimension ref="B3:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4742,7 +4742,7 @@
   <dimension ref="C3:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4817,23 +4817,9 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="D2:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D2:E15"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
@@ -4905,6 +4891,20 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5071,7 +5071,7 @@
   <dimension ref="A2:C35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5391,7 +5391,7 @@
   <dimension ref="A2:F55"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5656,7 +5656,7 @@
   <dimension ref="D2:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5720,8 +5720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:I48"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6026,7 +6026,7 @@
   <dimension ref="D1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/laravel-menu.xlsx
+++ b/laravel-menu.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="958" activeTab="18"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="958" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="menu" sheetId="1" r:id="rId1"/>
@@ -2385,7 +2385,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:R278"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A61" workbookViewId="0">
       <selection activeCell="F273" sqref="F273"/>
     </sheetView>
   </sheetViews>
@@ -4819,8 +4819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D2:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Y15" sqref="Y15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4899,8 +4899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="Q28" sqref="Q28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
